--- a/test/Statistics(Future).xlsx
+++ b/test/Statistics(Future).xlsx
@@ -608,13 +608,13 @@
         <v>43839</v>
       </c>
       <c r="B7">
-        <v>1200005.81</v>
+        <v>1607674</v>
       </c>
       <c r="C7">
         <v>1000000</v>
       </c>
       <c r="D7">
-        <v>200005.8099999999</v>
+        <v>607674</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22668.9999999998</v>
+        <v>-37400.00000000037</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>22668.9999999998</v>
+        <v>-37400.00000000037</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -640,13 +640,13 @@
         <v>43840</v>
       </c>
       <c r="B8">
-        <v>1200005.81</v>
+        <v>1607674</v>
       </c>
       <c r="C8">
         <v>1000000</v>
       </c>
       <c r="D8">
-        <v>200005.8099999999</v>
+        <v>607674</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>89367.89999999983</v>
+        <v>-76339.99999999997</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>89367.89999999983</v>
+        <v>-76339.99999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -672,13 +672,13 @@
         <v>43843</v>
       </c>
       <c r="B9">
-        <v>1200005.81</v>
+        <v>1607674</v>
       </c>
       <c r="C9">
         <v>1000000</v>
       </c>
       <c r="D9">
-        <v>200005.8099999999</v>
+        <v>607674</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>102235.1999999996</v>
+        <v>-73920.00000000031</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>102235.1999999996</v>
+        <v>-73920.00000000031</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -704,13 +704,13 @@
         <v>43844</v>
       </c>
       <c r="B10">
-        <v>1200005.81</v>
+        <v>1607674</v>
       </c>
       <c r="C10">
         <v>1000000</v>
       </c>
       <c r="D10">
-        <v>200005.8099999999</v>
+        <v>607674</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>118623.8</v>
+        <v>-117480.0000000001</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>118623.8</v>
+        <v>-117480.0000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -736,31 +736,31 @@
         <v>43845</v>
       </c>
       <c r="B11">
-        <v>2118623.8</v>
+        <v>1879440</v>
       </c>
       <c r="C11">
         <v>1000000</v>
       </c>
       <c r="D11">
-        <v>1118623.8</v>
+        <v>879439.9999999995</v>
       </c>
       <c r="E11">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="H11">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -768,31 +768,31 @@
         <v>43846</v>
       </c>
       <c r="B12">
-        <v>1223762.858</v>
+        <v>1496992</v>
       </c>
       <c r="C12">
         <v>1000000</v>
       </c>
       <c r="D12">
-        <v>223762.8579999998</v>
+        <v>496991.9999999995</v>
       </c>
       <c r="E12">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="H12">
-        <v>156605.819999999</v>
+        <v>-116380.0000000005</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>156605.819999999</v>
+        <v>-116380.0000000005</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -800,31 +800,31 @@
         <v>43847</v>
       </c>
       <c r="B13">
-        <v>1223762.858</v>
+        <v>1496992</v>
       </c>
       <c r="C13">
         <v>1000000</v>
       </c>
       <c r="D13">
-        <v>223762.8579999998</v>
+        <v>496991.9999999995</v>
       </c>
       <c r="E13">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="H13">
-        <v>117183.2599999993</v>
+        <v>-124520.0000000006</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>117183.2599999993</v>
+        <v>-124520.0000000006</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -832,31 +832,31 @@
         <v>43850</v>
       </c>
       <c r="B14">
-        <v>1223762.858</v>
+        <v>1496992</v>
       </c>
       <c r="C14">
         <v>1000000</v>
       </c>
       <c r="D14">
-        <v>223762.8579999998</v>
+        <v>496991.9999999995</v>
       </c>
       <c r="E14">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="H14">
-        <v>117573.3799999993</v>
+        <v>-119240.0000000004</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>117573.3799999993</v>
+        <v>-119240.0000000004</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -864,31 +864,31 @@
         <v>43851</v>
       </c>
       <c r="B15">
-        <v>1223762.858</v>
+        <v>1496992</v>
       </c>
       <c r="C15">
         <v>1000000</v>
       </c>
       <c r="D15">
-        <v>223762.8579999998</v>
+        <v>496991.9999999995</v>
       </c>
       <c r="E15">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>136283.5999999994</v>
+        <v>-120560.0000000004</v>
       </c>
       <c r="H15">
-        <v>170707.4999999987</v>
+        <v>-91960.00000000079</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>170707.4999999987</v>
+        <v>-91960.00000000079</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -896,31 +896,31 @@
         <v>43852</v>
       </c>
       <c r="B16">
-        <v>2153047.699999999</v>
+        <v>1899240</v>
       </c>
       <c r="C16">
         <v>1000000</v>
       </c>
       <c r="D16">
-        <v>1153047.699999999</v>
+        <v>899239.9999999998</v>
       </c>
       <c r="E16">
-        <v>196098.7999999991</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>196098.7999999991</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="H16">
-        <v>196098.7999999992</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>196098.7999999992</v>
+        <v>-100760.0000000003</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -928,31 +928,31 @@
         <v>43853</v>
       </c>
       <c r="B17">
-        <v>1230684.927999999</v>
+        <v>1515472</v>
       </c>
       <c r="C17">
         <v>1000000</v>
       </c>
       <c r="D17">
-        <v>230684.9279999989</v>
+        <v>515471.9999999998</v>
       </c>
       <c r="E17">
-        <v>196098.7999999991</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>196098.7999999991</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="H17">
-        <v>275533.4399999992</v>
+        <v>-89100.00000000026</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>275533.4399999992</v>
+        <v>-89100.00000000026</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -960,31 +960,31 @@
         <v>43864</v>
       </c>
       <c r="B18">
-        <v>1230684.927999999</v>
+        <v>1515472</v>
       </c>
       <c r="C18">
         <v>1000000</v>
       </c>
       <c r="D18">
-        <v>230684.9279999989</v>
+        <v>515471.9999999998</v>
       </c>
       <c r="E18">
-        <v>196098.7999999991</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>196098.7999999991</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="H18">
-        <v>762294.3799999991</v>
+        <v>12759.99999999963</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>762294.3799999991</v>
+        <v>12759.99999999963</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -992,31 +992,31 @@
         <v>43865</v>
       </c>
       <c r="B19">
-        <v>1230684.927999999</v>
+        <v>1515472</v>
       </c>
       <c r="C19">
         <v>1000000</v>
       </c>
       <c r="D19">
-        <v>230684.9279999989</v>
+        <v>515471.9999999998</v>
       </c>
       <c r="E19">
-        <v>196098.7999999991</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>196098.7999999991</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="H19">
-        <v>950871.6799999991</v>
+        <v>-7040.000000000493</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>950871.6799999991</v>
+        <v>-7040.000000000493</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1024,31 +1024,31 @@
         <v>43866</v>
       </c>
       <c r="B20">
-        <v>1230684.927999999</v>
+        <v>1515472</v>
       </c>
       <c r="C20">
         <v>1000000</v>
       </c>
       <c r="D20">
-        <v>230684.9279999989</v>
+        <v>515471.9999999998</v>
       </c>
       <c r="E20">
-        <v>196098.7999999991</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>196098.7999999991</v>
+        <v>-100760.0000000003</v>
       </c>
       <c r="H20">
-        <v>880509.4799999997</v>
+        <v>-48839.99999999999</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>880509.4799999997</v>
+        <v>-48839.99999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1056,31 +1056,31 @@
         <v>43867</v>
       </c>
       <c r="B21">
-        <v>2837458.379999999</v>
+        <v>1936860</v>
       </c>
       <c r="C21">
         <v>1000000</v>
       </c>
       <c r="D21">
-        <v>1837458.379999999</v>
+        <v>936860</v>
       </c>
       <c r="E21">
-        <v>778778.7799999991</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>778778.7799999991</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="H21">
-        <v>778778.7799999992</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>778778.7799999992</v>
+        <v>-63140.00000000012</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1088,31 +1088,31 @@
         <v>43868</v>
       </c>
       <c r="B22">
-        <v>1367530.863999999</v>
+        <v>1546052</v>
       </c>
       <c r="C22">
         <v>1000000</v>
       </c>
       <c r="D22">
-        <v>367530.863999999</v>
+        <v>546052</v>
       </c>
       <c r="E22">
-        <v>778778.7799999991</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>778778.7799999991</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="H22">
-        <v>795841.1800000002</v>
+        <v>-67539.99999999987</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>795841.1800000002</v>
+        <v>-67539.99999999987</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1120,31 +1120,31 @@
         <v>43871</v>
       </c>
       <c r="B23">
-        <v>1367530.863999999</v>
+        <v>1546052</v>
       </c>
       <c r="C23">
         <v>1000000</v>
       </c>
       <c r="D23">
-        <v>367530.863999999</v>
+        <v>546052</v>
       </c>
       <c r="E23">
-        <v>778778.7799999991</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>778778.7799999991</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="H23">
-        <v>929047.9600000001</v>
+        <v>-50599.99999999965</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>929047.9600000001</v>
+        <v>-50599.99999999965</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1152,31 +1152,31 @@
         <v>43872</v>
       </c>
       <c r="B24">
-        <v>1367530.863999999</v>
+        <v>1546052</v>
       </c>
       <c r="C24">
         <v>1000000</v>
       </c>
       <c r="D24">
-        <v>367530.863999999</v>
+        <v>546052</v>
       </c>
       <c r="E24">
-        <v>778778.7799999991</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>778778.7799999991</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="H24">
-        <v>915960.6200000005</v>
+        <v>-66219.99999999983</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>915960.6200000005</v>
+        <v>-66219.99999999983</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1184,31 +1184,31 @@
         <v>43873</v>
       </c>
       <c r="B25">
-        <v>1367530.863999999</v>
+        <v>1546052</v>
       </c>
       <c r="C25">
         <v>1000000</v>
       </c>
       <c r="D25">
-        <v>367530.863999999</v>
+        <v>546052</v>
       </c>
       <c r="E25">
-        <v>778778.7799999991</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>778778.7799999991</v>
+        <v>-63140.00000000012</v>
       </c>
       <c r="H25">
-        <v>829603.02</v>
+        <v>-79419.99999999969</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>829603.02</v>
+        <v>-79419.99999999969</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1216,31 +1216,31 @@
         <v>43874</v>
       </c>
       <c r="B26">
-        <v>2888282.62</v>
+        <v>1940380</v>
       </c>
       <c r="C26">
         <v>1000000</v>
       </c>
       <c r="D26">
-        <v>1888282.62</v>
+        <v>940380.0000000005</v>
       </c>
       <c r="E26">
-        <v>781779.0200000004</v>
+        <v>-59619.99999999956</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>781779.0200000004</v>
+        <v>-59619.99999999956</v>
       </c>
       <c r="H26">
-        <v>781779.0200000005</v>
+        <v>-59619.99999999957</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>781779.0200000005</v>
+        <v>-59619.99999999957</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1248,31 +1248,31 @@
         <v>43875</v>
       </c>
       <c r="B27">
-        <v>1377695.482</v>
+        <v>1547438</v>
       </c>
       <c r="C27">
         <v>1000000</v>
       </c>
       <c r="D27">
-        <v>377695.482</v>
+        <v>547438.0000000005</v>
       </c>
       <c r="E27">
-        <v>781779.0200000004</v>
+        <v>-59619.99999999956</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>781779.0200000004</v>
+        <v>-59619.99999999956</v>
       </c>
       <c r="H27">
-        <v>816103.3999999996</v>
+        <v>-63800.00000000015</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>816103.3999999996</v>
+        <v>-63800.00000000015</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1280,31 +1280,31 @@
         <v>43878</v>
       </c>
       <c r="B28">
-        <v>1377695.482</v>
+        <v>1547438</v>
       </c>
       <c r="C28">
         <v>1000000</v>
       </c>
       <c r="D28">
-        <v>377695.482</v>
+        <v>547438.0000000005</v>
       </c>
       <c r="E28">
-        <v>781779.0200000004</v>
+        <v>-59619.99999999956</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>781779.0200000004</v>
+        <v>-59619.99999999956</v>
       </c>
       <c r="H28">
-        <v>807752.540000001</v>
+        <v>-49939.99999999963</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>807752.540000001</v>
+        <v>-49939.99999999963</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1312,31 +1312,31 @@
         <v>43879</v>
       </c>
       <c r="B29">
-        <v>1377695.482</v>
+        <v>1547438</v>
       </c>
       <c r="C29">
         <v>1000000</v>
       </c>
       <c r="D29">
-        <v>377695.482</v>
+        <v>547438.0000000005</v>
       </c>
       <c r="E29">
-        <v>781779.0200000004</v>
+        <v>-59619.99999999956</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>781779.0200000004</v>
+        <v>-59619.99999999956</v>
       </c>
       <c r="H29">
-        <v>871077.8</v>
+        <v>-35199.99999999991</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>871077.8</v>
+        <v>-35199.99999999991</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1344,31 +1344,31 @@
         <v>43880</v>
       </c>
       <c r="B30">
-        <v>1377695.482</v>
+        <v>1547438</v>
       </c>
       <c r="C30">
         <v>1000000</v>
       </c>
       <c r="D30">
-        <v>377695.482</v>
+        <v>547438.0000000005</v>
       </c>
       <c r="E30">
-        <v>781779.0200000004</v>
+        <v>-59619.99999999956</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>781779.0200000004</v>
+        <v>-59619.99999999956</v>
       </c>
       <c r="H30">
-        <v>899078.8400000003</v>
+        <v>13859.99999999987</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>899078.8400000003</v>
+        <v>13859.99999999987</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1376,31 +1376,31 @@
         <v>43881</v>
       </c>
       <c r="B31">
-        <v>3005582.44</v>
+        <v>2027720</v>
       </c>
       <c r="C31">
         <v>1000000</v>
       </c>
       <c r="D31">
-        <v>2005582.44</v>
+        <v>1027720</v>
       </c>
       <c r="E31">
-        <v>785751.0800000008</v>
+        <v>27720.00000000041</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>785751.0800000008</v>
+        <v>27720.00000000041</v>
       </c>
       <c r="H31">
-        <v>785751.0800000009</v>
+        <v>27720.0000000004</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>785751.0800000009</v>
+        <v>27720.0000000004</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1408,31 +1408,31 @@
         <v>43882</v>
       </c>
       <c r="B32">
-        <v>1401127.112</v>
+        <v>1658760</v>
       </c>
       <c r="C32">
         <v>1000000</v>
       </c>
       <c r="D32">
-        <v>401127.1119999997</v>
+        <v>658760.0000000005</v>
       </c>
       <c r="E32">
-        <v>785751.0800000008</v>
+        <v>27720.00000000041</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>785751.0800000008</v>
+        <v>27720.00000000041</v>
       </c>
       <c r="H32">
-        <v>846973.8200000013</v>
+        <v>43520.00000000081</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>846973.8200000013</v>
+        <v>43520.00000000081</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1440,31 +1440,31 @@
         <v>43885</v>
       </c>
       <c r="B33">
-        <v>1401127.112</v>
+        <v>1658760</v>
       </c>
       <c r="C33">
         <v>1000000</v>
       </c>
       <c r="D33">
-        <v>401127.1119999997</v>
+        <v>658760.0000000005</v>
       </c>
       <c r="E33">
-        <v>785751.0800000008</v>
+        <v>27720.00000000041</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>785751.0800000008</v>
+        <v>27720.00000000041</v>
       </c>
       <c r="H33">
-        <v>1328215.840000001</v>
+        <v>128920.0000000005</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1328215.840000001</v>
+        <v>128920.0000000005</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1472,31 +1472,31 @@
         <v>43886</v>
       </c>
       <c r="B34">
-        <v>1401127.112</v>
+        <v>1658760</v>
       </c>
       <c r="C34">
         <v>1000000</v>
       </c>
       <c r="D34">
-        <v>401127.1119999997</v>
+        <v>658760.0000000005</v>
       </c>
       <c r="E34">
-        <v>785751.0800000008</v>
+        <v>27720.00000000041</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>785751.0800000008</v>
+        <v>27720.00000000041</v>
       </c>
       <c r="H34">
-        <v>1295909.320000002</v>
+        <v>80520.0000000007</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1295909.320000002</v>
+        <v>80520.0000000007</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1504,31 +1504,31 @@
         <v>43887</v>
       </c>
       <c r="B35">
-        <v>1401127.112</v>
+        <v>1658760</v>
       </c>
       <c r="C35">
         <v>1000000</v>
       </c>
       <c r="D35">
-        <v>401127.1119999997</v>
+        <v>658760.0000000005</v>
       </c>
       <c r="E35">
-        <v>785751.0800000008</v>
+        <v>27720.00000000041</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>785751.0800000008</v>
+        <v>27720.00000000041</v>
       </c>
       <c r="H35">
-        <v>1480975.980000002</v>
+        <v>74720.00000000086</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1480975.980000002</v>
+        <v>74720.00000000086</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1536,31 +1536,31 @@
         <v>43888</v>
       </c>
       <c r="B36">
-        <v>3700807.340000001</v>
+        <v>2076920.000000001</v>
       </c>
       <c r="C36">
         <v>1000000</v>
       </c>
       <c r="D36">
-        <v>2700807.340000001</v>
+        <v>1076920.000000001</v>
       </c>
       <c r="E36">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="H36">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1568,31 +1568,31 @@
         <v>43889</v>
       </c>
       <c r="B37">
-        <v>1630521.216000001</v>
+        <v>1703580.000000001</v>
       </c>
       <c r="C37">
         <v>1000000</v>
       </c>
       <c r="D37">
-        <v>630521.2160000009</v>
+        <v>703580.0000000007</v>
       </c>
       <c r="E37">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="H37">
-        <v>1747073.800000002</v>
+        <v>53520.00000000081</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1747073.800000002</v>
+        <v>53520.00000000081</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1600,31 +1600,31 @@
         <v>43892</v>
       </c>
       <c r="B38">
-        <v>1630521.216000001</v>
+        <v>1703580.000000001</v>
       </c>
       <c r="C38">
         <v>1000000</v>
       </c>
       <c r="D38">
-        <v>630521.2160000009</v>
+        <v>703580.0000000007</v>
       </c>
       <c r="E38">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="H38">
-        <v>1385457.840000002</v>
+        <v>-47079.99999999921</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1385457.840000002</v>
+        <v>-47079.99999999921</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1632,31 +1632,31 @@
         <v>43893</v>
       </c>
       <c r="B39">
-        <v>1630521.216000001</v>
+        <v>1703580.000000001</v>
       </c>
       <c r="C39">
         <v>1000000</v>
       </c>
       <c r="D39">
-        <v>630521.2160000009</v>
+        <v>703580.0000000007</v>
       </c>
       <c r="E39">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="H39">
-        <v>1022476.700000003</v>
+        <v>-53479.99999999908</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1022476.700000003</v>
+        <v>-53479.99999999908</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1664,31 +1664,31 @@
         <v>43894</v>
       </c>
       <c r="B40">
-        <v>1630521.216000001</v>
+        <v>1703580.000000001</v>
       </c>
       <c r="C40">
         <v>1000000</v>
       </c>
       <c r="D40">
-        <v>630521.2160000009</v>
+        <v>703580.0000000007</v>
       </c>
       <c r="E40">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1765962.640000001</v>
+        <v>76920.00000000057</v>
       </c>
       <c r="H40">
-        <v>1352514.000000003</v>
+        <v>31520.00000000092</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1352514.000000003</v>
+        <v>31520.00000000092</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1696,31 +1696,31 @@
         <v>43895</v>
       </c>
       <c r="B41">
-        <v>3287358.700000003</v>
+        <v>2012720.000000001</v>
       </c>
       <c r="C41">
         <v>1000000</v>
       </c>
       <c r="D41">
-        <v>2287358.700000003</v>
+        <v>1012720.000000001</v>
       </c>
       <c r="E41">
-        <v>1327949.620000002</v>
+        <v>12720.00000000097</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1327949.620000002</v>
+        <v>12720.00000000097</v>
       </c>
       <c r="H41">
-        <v>1327949.620000003</v>
+        <v>12720.00000000096</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1327949.620000003</v>
+        <v>12720.00000000096</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1728,31 +1728,31 @@
         <v>43896</v>
       </c>
       <c r="B42">
-        <v>1457536.026000003</v>
+        <v>1637340.000000001</v>
       </c>
       <c r="C42">
         <v>1000000</v>
       </c>
       <c r="D42">
-        <v>457536.0260000029</v>
+        <v>637340.0000000012</v>
       </c>
       <c r="E42">
-        <v>1327949.620000002</v>
+        <v>12720.00000000097</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1327949.620000002</v>
+        <v>12720.00000000097</v>
       </c>
       <c r="H42">
-        <v>1472011.000000002</v>
+        <v>17320.00000000076</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1472011.000000002</v>
+        <v>17320.00000000076</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1760,31 +1760,31 @@
         <v>43899</v>
       </c>
       <c r="B43">
-        <v>1457536.026000003</v>
+        <v>1637340.000000001</v>
       </c>
       <c r="C43">
         <v>1000000</v>
       </c>
       <c r="D43">
-        <v>457536.0260000029</v>
+        <v>637340.0000000012</v>
       </c>
       <c r="E43">
-        <v>1327949.620000002</v>
+        <v>12720.00000000097</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1327949.620000002</v>
+        <v>12720.00000000097</v>
       </c>
       <c r="H43">
-        <v>2019286.120000002</v>
+        <v>19720.00000000085</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2019286.120000002</v>
+        <v>19720.00000000085</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1792,31 +1792,31 @@
         <v>43900</v>
       </c>
       <c r="B44">
-        <v>1457536.026000003</v>
+        <v>1637340.000000001</v>
       </c>
       <c r="C44">
         <v>1000000</v>
       </c>
       <c r="D44">
-        <v>457536.0260000029</v>
+        <v>637340.0000000012</v>
       </c>
       <c r="E44">
-        <v>1327949.620000002</v>
+        <v>12720.00000000097</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1327949.620000002</v>
+        <v>12720.00000000097</v>
       </c>
       <c r="H44">
-        <v>2645847.940000003</v>
+        <v>-36879.99999999884</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2645847.940000003</v>
+        <v>-36879.99999999884</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1824,31 +1824,31 @@
         <v>43901</v>
       </c>
       <c r="B45">
-        <v>1457536.026000003</v>
+        <v>1637340.000000001</v>
       </c>
       <c r="C45">
         <v>1000000</v>
       </c>
       <c r="D45">
-        <v>457536.0260000029</v>
+        <v>637340.0000000012</v>
       </c>
       <c r="E45">
-        <v>1327949.620000002</v>
+        <v>12720.00000000097</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1327949.620000002</v>
+        <v>12720.00000000097</v>
       </c>
       <c r="H45">
-        <v>3215472.200000003</v>
+        <v>-38679.99999999891</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>3215472.200000003</v>
+        <v>-38679.99999999891</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1856,31 +1856,31 @@
         <v>43902</v>
       </c>
       <c r="B46">
-        <v>5174881.280000003</v>
+        <v>1938920.000000001</v>
       </c>
       <c r="C46">
         <v>1000000</v>
       </c>
       <c r="D46">
-        <v>4174881.280000004</v>
+        <v>938920.0000000012</v>
       </c>
       <c r="E46">
-        <v>3529346.880000002</v>
+        <v>-61079.99999999898</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>3529346.880000002</v>
+        <v>-61079.99999999898</v>
       </c>
       <c r="H46">
-        <v>3529346.880000003</v>
+        <v>-61079.999999999</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>3529346.880000003</v>
+        <v>-61079.999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1888,31 +1888,31 @@
         <v>43903</v>
       </c>
       <c r="B47">
-        <v>1835026.680000003</v>
+        <v>1548420.000000001</v>
       </c>
       <c r="C47">
         <v>1000000</v>
       </c>
       <c r="D47">
-        <v>835026.6800000034</v>
+        <v>548420.0000000012</v>
       </c>
       <c r="E47">
-        <v>3529346.880000002</v>
+        <v>-61079.99999999898</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>3529346.880000002</v>
+        <v>-61079.99999999898</v>
       </c>
       <c r="H47">
-        <v>3250179.880000003</v>
+        <v>-73179.99999999924</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>3250179.880000003</v>
+        <v>-73179.99999999924</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1920,31 +1920,31 @@
         <v>43906</v>
       </c>
       <c r="B48">
-        <v>1835026.680000003</v>
+        <v>1548420.000000001</v>
       </c>
       <c r="C48">
         <v>1000000</v>
       </c>
       <c r="D48">
-        <v>835026.6800000034</v>
+        <v>548420.0000000012</v>
       </c>
       <c r="E48">
-        <v>3529346.880000002</v>
+        <v>-61079.99999999898</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>3529346.880000002</v>
+        <v>-61079.99999999898</v>
       </c>
       <c r="H48">
-        <v>3178666.880000005</v>
+        <v>-155239.999999999</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>3178666.880000005</v>
+        <v>-155239.999999999</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1952,31 +1952,31 @@
         <v>43907</v>
       </c>
       <c r="B49">
-        <v>1835026.680000003</v>
+        <v>1548420.000000001</v>
       </c>
       <c r="C49">
         <v>1000000</v>
       </c>
       <c r="D49">
-        <v>835026.6800000034</v>
+        <v>548420.0000000012</v>
       </c>
       <c r="E49">
-        <v>3529346.880000002</v>
+        <v>-61079.99999999898</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>3529346.880000002</v>
+        <v>-61079.99999999898</v>
       </c>
       <c r="H49">
-        <v>3216425.080000005</v>
+        <v>-290759.999999999</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>3216425.080000005</v>
+        <v>-290759.999999999</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1984,31 +1984,31 @@
         <v>43908</v>
       </c>
       <c r="B50">
-        <v>1835026.680000003</v>
+        <v>1548420.000000001</v>
       </c>
       <c r="C50">
         <v>1000000</v>
       </c>
       <c r="D50">
-        <v>835026.6800000034</v>
+        <v>548420.0000000012</v>
       </c>
       <c r="E50">
-        <v>3529346.880000002</v>
+        <v>-61079.99999999898</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>3529346.880000002</v>
+        <v>-61079.99999999898</v>
       </c>
       <c r="H50">
-        <v>4087757.080000004</v>
+        <v>-214639.9999999988</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>4087757.080000004</v>
+        <v>-214639.9999999988</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2016,31 +2016,31 @@
         <v>43909</v>
       </c>
       <c r="B51">
-        <v>5733291.480000003</v>
+        <v>1725300.000000001</v>
       </c>
       <c r="C51">
         <v>1000000</v>
       </c>
       <c r="D51">
-        <v>4733291.480000004</v>
+        <v>725300.0000000009</v>
       </c>
       <c r="E51">
-        <v>5007020.480000002</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>5007020.480000002</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="H51">
-        <v>5007020.480000004</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>5007020.480000004</v>
+        <v>-274699.9999999992</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2048,31 +2048,31 @@
         <v>43910</v>
       </c>
       <c r="B52">
-        <v>2841166.884000003</v>
+        <v>1355898.000000001</v>
       </c>
       <c r="C52">
         <v>1000000</v>
       </c>
       <c r="D52">
-        <v>1841166.884000004</v>
+        <v>355898.0000000009</v>
       </c>
       <c r="E52">
-        <v>5007020.480000002</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>5007020.480000002</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="H52">
-        <v>5183958.880000004</v>
+        <v>-252699.9999999992</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>5183958.880000004</v>
+        <v>-252699.9999999992</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2080,31 +2080,31 @@
         <v>43913</v>
       </c>
       <c r="B53">
-        <v>2841166.884000003</v>
+        <v>1355898.000000001</v>
       </c>
       <c r="C53">
         <v>1000000</v>
       </c>
       <c r="D53">
-        <v>1841166.884000004</v>
+        <v>355898.0000000009</v>
       </c>
       <c r="E53">
-        <v>5007020.480000002</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>5007020.480000002</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="H53">
-        <v>5504200.800000004</v>
+        <v>-237959.9999999988</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>5504200.800000004</v>
+        <v>-237959.9999999988</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2112,31 +2112,31 @@
         <v>43914</v>
       </c>
       <c r="B54">
-        <v>2841166.884000003</v>
+        <v>1355898.000000001</v>
       </c>
       <c r="C54">
         <v>1000000</v>
       </c>
       <c r="D54">
-        <v>1841166.884000004</v>
+        <v>355898.0000000009</v>
       </c>
       <c r="E54">
-        <v>5007020.480000002</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>5007020.480000002</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="H54">
-        <v>5859488.120000003</v>
+        <v>-34019.99999999923</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>5859488.120000003</v>
+        <v>-34019.99999999923</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2144,31 +2144,31 @@
         <v>43915</v>
       </c>
       <c r="B55">
-        <v>2841166.884000003</v>
+        <v>1355898.000000001</v>
       </c>
       <c r="C55">
         <v>1000000</v>
       </c>
       <c r="D55">
-        <v>1841166.884000004</v>
+        <v>355898.0000000009</v>
       </c>
       <c r="E55">
-        <v>5007020.480000002</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>5007020.480000002</v>
+        <v>-274699.9999999992</v>
       </c>
       <c r="H55">
-        <v>6122584.360000002</v>
+        <v>60360.00000000059</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>6122584.360000002</v>
+        <v>60360.00000000059</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2176,31 +2176,31 @@
         <v>43916</v>
       </c>
       <c r="B56">
-        <v>6836143.760000002</v>
+        <v>2024280.000000001</v>
       </c>
       <c r="C56">
         <v>1000000</v>
       </c>
       <c r="D56">
-        <v>5836143.760000003</v>
+        <v>1024280.000000001</v>
       </c>
       <c r="E56">
-        <v>5848200.520000001</v>
+        <v>24280.00000000087</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>5848200.520000001</v>
+        <v>24280.00000000087</v>
       </c>
       <c r="H56">
-        <v>5832150.520000003</v>
+        <v>24280.00000000089</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>5832150.520000003</v>
+        <v>24280.00000000089</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2208,31 +2208,31 @@
         <v>43917</v>
       </c>
       <c r="B57">
-        <v>4501712.716000002</v>
+        <v>1659200.000000001</v>
       </c>
       <c r="C57">
         <v>1000000</v>
       </c>
       <c r="D57">
-        <v>3501712.716000003</v>
+        <v>659200.0000000012</v>
       </c>
       <c r="E57">
-        <v>5848200.520000001</v>
+        <v>24280.00000000087</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>5848200.520000001</v>
+        <v>24280.00000000087</v>
       </c>
       <c r="H57">
-        <v>5962106.340000003</v>
+        <v>43680.00000000087</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>5962106.340000003</v>
+        <v>43680.00000000087</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2240,31 +2240,31 @@
         <v>43920</v>
       </c>
       <c r="B58">
-        <v>4501712.716000002</v>
+        <v>1659200.000000001</v>
       </c>
       <c r="C58">
         <v>1000000</v>
       </c>
       <c r="D58">
-        <v>3501712.716000003</v>
+        <v>659200.0000000012</v>
       </c>
       <c r="E58">
-        <v>5848200.520000001</v>
+        <v>24280.00000000087</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>5848200.520000001</v>
+        <v>24280.00000000087</v>
       </c>
       <c r="H58">
-        <v>5868790.680000002</v>
+        <v>27480.00000000082</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>5868790.680000002</v>
+        <v>27480.00000000082</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2272,31 +2272,31 @@
         <v>43921</v>
       </c>
       <c r="B59">
-        <v>4501712.716000002</v>
+        <v>1659200.000000001</v>
       </c>
       <c r="C59">
         <v>1000000</v>
       </c>
       <c r="D59">
-        <v>3501712.716000003</v>
+        <v>659200.0000000012</v>
       </c>
       <c r="E59">
-        <v>5848200.520000001</v>
+        <v>24280.00000000087</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>5848200.520000001</v>
+        <v>24280.00000000087</v>
       </c>
       <c r="H59">
-        <v>5802084.460000006</v>
+        <v>20080.0000000013</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>5802084.460000006</v>
+        <v>20080.0000000013</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2304,31 +2304,31 @@
         <v>43922</v>
       </c>
       <c r="B60">
-        <v>4501712.716000002</v>
+        <v>1659200.000000001</v>
       </c>
       <c r="C60">
         <v>1000000</v>
       </c>
       <c r="D60">
-        <v>3501712.716000003</v>
+        <v>659200.0000000012</v>
       </c>
       <c r="E60">
-        <v>5848200.520000001</v>
+        <v>24280.00000000087</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>5848200.520000001</v>
+        <v>24280.00000000087</v>
       </c>
       <c r="H60">
-        <v>5357303.120000005</v>
+        <v>-49719.99999999889</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>5357303.120000005</v>
+        <v>-49719.99999999889</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2336,31 +2336,31 @@
         <v>43923</v>
       </c>
       <c r="B61">
-        <v>6761634.960000003</v>
+        <v>1959880.000000001</v>
       </c>
       <c r="C61">
         <v>1000000</v>
       </c>
       <c r="D61">
-        <v>5761634.960000003</v>
+        <v>959880.0000000012</v>
       </c>
       <c r="E61">
-        <v>5414579.600000001</v>
+        <v>-40119.99999999911</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>5414579.600000001</v>
+        <v>-40119.99999999911</v>
       </c>
       <c r="H61">
-        <v>5414579.600000003</v>
+        <v>-40119.99999999909</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>5414579.600000003</v>
+        <v>-40119.99999999909</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2368,31 +2368,31 @@
         <v>43924</v>
       </c>
       <c r="B62">
-        <v>2350718.060000003</v>
+        <v>1595880.000000001</v>
       </c>
       <c r="C62">
         <v>1000000</v>
       </c>
       <c r="D62">
-        <v>1350718.060000003</v>
+        <v>595880.0000000012</v>
       </c>
       <c r="E62">
-        <v>5414579.600000001</v>
+        <v>-40119.99999999911</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>5414579.600000001</v>
+        <v>-40119.99999999911</v>
       </c>
       <c r="H62">
-        <v>6341114.400000004</v>
+        <v>-40919.99999999893</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>6341114.400000004</v>
+        <v>-40919.99999999893</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2400,31 +2400,31 @@
         <v>43928</v>
       </c>
       <c r="B63">
-        <v>2350718.060000003</v>
+        <v>1595880.000000001</v>
       </c>
       <c r="C63">
         <v>1000000</v>
       </c>
       <c r="D63">
-        <v>1350718.060000003</v>
+        <v>595880.0000000012</v>
       </c>
       <c r="E63">
-        <v>5414579.600000001</v>
+        <v>-40119.99999999911</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>5414579.600000001</v>
+        <v>-40119.99999999911</v>
       </c>
       <c r="H63">
-        <v>6122222.300000002</v>
+        <v>66080.00000000096</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>6122222.300000002</v>
+        <v>66080.00000000096</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2432,31 +2432,31 @@
         <v>43929</v>
       </c>
       <c r="B64">
-        <v>2350718.060000003</v>
+        <v>1595880.000000001</v>
       </c>
       <c r="C64">
         <v>1000000</v>
       </c>
       <c r="D64">
-        <v>1350718.060000003</v>
+        <v>595880.0000000012</v>
       </c>
       <c r="E64">
-        <v>5414579.600000001</v>
+        <v>-40119.99999999911</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>5414579.600000001</v>
+        <v>-40119.99999999911</v>
       </c>
       <c r="H64">
-        <v>6138389.900000003</v>
+        <v>23280.00000000066</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>6138389.900000003</v>
+        <v>23280.00000000066</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2464,31 +2464,31 @@
         <v>43930</v>
       </c>
       <c r="B65">
-        <v>2350718.060000003</v>
+        <v>1595880.000000001</v>
       </c>
       <c r="C65">
         <v>1000000</v>
       </c>
       <c r="D65">
-        <v>1350718.060000003</v>
+        <v>595880.0000000012</v>
       </c>
       <c r="E65">
-        <v>5414579.600000001</v>
+        <v>-40119.99999999911</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>5414579.600000001</v>
+        <v>-40119.99999999911</v>
       </c>
       <c r="H65">
-        <v>5555122.000000006</v>
+        <v>27080.00000000118</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>5555122.000000006</v>
+        <v>27080.00000000118</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2496,31 +2496,31 @@
         <v>43931</v>
       </c>
       <c r="B66">
-        <v>6132962.380000005</v>
+        <v>2084280.000000001</v>
       </c>
       <c r="C66">
         <v>1000000</v>
       </c>
       <c r="D66">
-        <v>5132962.380000005</v>
+        <v>1084280.000000001</v>
       </c>
       <c r="E66">
-        <v>6657842.640000002</v>
+        <v>84280.00000000087</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>6657842.640000002</v>
+        <v>84280.00000000087</v>
       </c>
       <c r="H66">
-        <v>6833277.920000005</v>
+        <v>84280.00000000089</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>6833277.920000005</v>
+        <v>84280.00000000089</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2528,31 +2528,31 @@
         <v>43934</v>
       </c>
       <c r="B67">
-        <v>6132962.380000005</v>
+        <v>1709340.000000001</v>
       </c>
       <c r="C67">
         <v>1000000</v>
       </c>
       <c r="D67">
-        <v>5132962.380000005</v>
+        <v>709340.0000000012</v>
       </c>
       <c r="E67">
-        <v>6657842.640000002</v>
+        <v>84280.00000000087</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>6657842.640000002</v>
+        <v>84280.00000000087</v>
       </c>
       <c r="H67">
-        <v>6797456.420000005</v>
+        <v>64080.00000000106</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>6797456.420000005</v>
+        <v>64080.00000000106</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2560,31 +2560,31 @@
         <v>43935</v>
       </c>
       <c r="B68">
-        <v>6132962.380000005</v>
+        <v>1709340.000000001</v>
       </c>
       <c r="C68">
         <v>1000000</v>
       </c>
       <c r="D68">
-        <v>5132962.380000005</v>
+        <v>709340.0000000012</v>
       </c>
       <c r="E68">
-        <v>6657842.640000002</v>
+        <v>84280.00000000087</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>6657842.640000002</v>
+        <v>84280.00000000087</v>
       </c>
       <c r="H68">
-        <v>6932674.720000004</v>
+        <v>109080.0000000011</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>6932674.720000004</v>
+        <v>109080.0000000011</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2592,31 +2592,31 @@
         <v>43936</v>
       </c>
       <c r="B69">
-        <v>6132962.380000005</v>
+        <v>1709340.000000001</v>
       </c>
       <c r="C69">
         <v>1000000</v>
       </c>
       <c r="D69">
-        <v>5132962.380000005</v>
+        <v>709340.0000000012</v>
       </c>
       <c r="E69">
-        <v>6657842.640000002</v>
+        <v>84280.00000000087</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>6657842.640000002</v>
+        <v>84280.00000000087</v>
       </c>
       <c r="H69">
-        <v>7002285.640000003</v>
+        <v>113880.0000000007</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>7002285.640000003</v>
+        <v>113880.0000000007</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2624,31 +2624,31 @@
         <v>43937</v>
       </c>
       <c r="B70">
-        <v>6132962.380000005</v>
+        <v>1709340.000000001</v>
       </c>
       <c r="C70">
         <v>1000000</v>
       </c>
       <c r="D70">
-        <v>5132962.380000005</v>
+        <v>709340.0000000012</v>
       </c>
       <c r="E70">
-        <v>6657842.640000002</v>
+        <v>84280.00000000087</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>6657842.640000002</v>
+        <v>84280.00000000087</v>
       </c>
       <c r="H70">
-        <v>7052006.160000004</v>
+        <v>109680.0000000011</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>7052006.160000004</v>
+        <v>109680.0000000011</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2656,31 +2656,31 @@
         <v>43938</v>
       </c>
       <c r="B71">
-        <v>11010111.92000001</v>
+        <v>2100080.000000001</v>
       </c>
       <c r="C71">
         <v>1000000</v>
       </c>
       <c r="D71">
-        <v>10010111.92000001</v>
+        <v>1100080.000000001</v>
       </c>
       <c r="E71">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="H71">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2688,31 +2688,31 @@
         <v>43941</v>
       </c>
       <c r="B72">
-        <v>3901060.800000009</v>
+        <v>1732880.000000001</v>
       </c>
       <c r="C72">
         <v>1000000</v>
       </c>
       <c r="D72">
-        <v>2901060.800000009</v>
+        <v>732880.0000000009</v>
       </c>
       <c r="E72">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="H72">
-        <v>7508051.280000005</v>
+        <v>125680.0000000007</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>7508051.280000005</v>
+        <v>125680.0000000007</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2720,31 +2720,31 @@
         <v>43942</v>
       </c>
       <c r="B73">
-        <v>3901060.800000009</v>
+        <v>1732880.000000001</v>
       </c>
       <c r="C73">
         <v>1000000</v>
       </c>
       <c r="D73">
-        <v>2901060.800000009</v>
+        <v>732880.0000000009</v>
       </c>
       <c r="E73">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="H73">
-        <v>8851335.120000003</v>
+        <v>162080.0000000006</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>8851335.120000003</v>
+        <v>162080.0000000006</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2752,31 +2752,31 @@
         <v>43943</v>
       </c>
       <c r="B74">
-        <v>3901060.800000009</v>
+        <v>1732880.000000001</v>
       </c>
       <c r="C74">
         <v>1000000</v>
       </c>
       <c r="D74">
-        <v>2901060.800000009</v>
+        <v>732880.0000000009</v>
       </c>
       <c r="E74">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="H74">
-        <v>12215932.84000001</v>
+        <v>164280.0000000009</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>12215932.84000001</v>
+        <v>164280.0000000009</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2784,31 +2784,31 @@
         <v>43944</v>
       </c>
       <c r="B75">
-        <v>3901060.800000009</v>
+        <v>1732880.000000001</v>
       </c>
       <c r="C75">
         <v>1000000</v>
       </c>
       <c r="D75">
-        <v>2901060.800000009</v>
+        <v>732880.0000000009</v>
       </c>
       <c r="E75">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>7071278.120000003</v>
+        <v>100080.0000000007</v>
       </c>
       <c r="H75">
-        <v>11440487.72000001</v>
+        <v>226080.0000000009</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>11440487.72000001</v>
+        <v>226080.0000000009</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2816,31 +2816,31 @@
         <v>43945</v>
       </c>
       <c r="B76">
-        <v>15145002.20000001</v>
+        <v>2227680.000000001</v>
       </c>
       <c r="C76">
         <v>1000000</v>
       </c>
       <c r="D76">
-        <v>14145002.20000001</v>
+        <v>1227680.000000001</v>
       </c>
       <c r="E76">
-        <v>10057195.52</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>10057195.52</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="H76">
-        <v>10123234.42</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>10123234.42</v>
+        <v>227680.0000000006</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2848,31 +2848,31 @@
         <v>43948</v>
       </c>
       <c r="B77">
-        <v>13178626.10000001</v>
+        <v>1846680.000000001</v>
       </c>
       <c r="C77">
         <v>1000000</v>
       </c>
       <c r="D77">
-        <v>12178626.10000001</v>
+        <v>846680.0000000009</v>
       </c>
       <c r="E77">
-        <v>10057195.52</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>10057195.52</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="H77">
-        <v>10564369.14</v>
+        <v>227880.0000000004</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>10564369.14</v>
+        <v>227880.0000000004</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2880,31 +2880,31 @@
         <v>43949</v>
       </c>
       <c r="B78">
-        <v>13178626.10000001</v>
+        <v>1846680.000000001</v>
       </c>
       <c r="C78">
         <v>1000000</v>
       </c>
       <c r="D78">
-        <v>12178626.10000001</v>
+        <v>846680.0000000009</v>
       </c>
       <c r="E78">
-        <v>10057195.52</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>10057195.52</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="H78">
-        <v>10961496.16</v>
+        <v>186080.0000000003</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>10961496.16</v>
+        <v>186080.0000000003</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2912,31 +2912,31 @@
         <v>43950</v>
       </c>
       <c r="B79">
-        <v>13178626.10000001</v>
+        <v>1846680.000000001</v>
       </c>
       <c r="C79">
         <v>1000000</v>
       </c>
       <c r="D79">
-        <v>12178626.10000001</v>
+        <v>846680.0000000009</v>
       </c>
       <c r="E79">
-        <v>10057195.52</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>10057195.52</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="H79">
-        <v>9867116.140000002</v>
+        <v>205880.0000000006</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>9867116.140000002</v>
+        <v>205880.0000000006</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2944,31 +2944,31 @@
         <v>43951</v>
       </c>
       <c r="B80">
-        <v>13178626.10000001</v>
+        <v>1846680.000000001</v>
       </c>
       <c r="C80">
         <v>1000000</v>
       </c>
       <c r="D80">
-        <v>12178626.10000001</v>
+        <v>846680.0000000009</v>
       </c>
       <c r="E80">
-        <v>10057195.52</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>10057195.52</v>
+        <v>227680.0000000006</v>
       </c>
       <c r="H80">
-        <v>9124507.240000002</v>
+        <v>208880.0000000007</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>9124507.240000002</v>
+        <v>208880.0000000007</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2976,31 +2976,31 @@
         <v>43957</v>
       </c>
       <c r="B81">
-        <v>18565448.59000001</v>
+        <v>2193080.000000001</v>
       </c>
       <c r="C81">
         <v>1000000</v>
       </c>
       <c r="D81">
-        <v>17565448.59000001</v>
+        <v>1193080.000000001</v>
       </c>
       <c r="E81">
-        <v>7042652.459999999</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>7042652.459999999</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="H81">
-        <v>6605839.260000001</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>6605839.260000001</v>
+        <v>193080.0000000008</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3008,31 +3008,31 @@
         <v>43958</v>
       </c>
       <c r="B82">
-        <v>13909363.79000001</v>
+        <v>1813920.000000001</v>
       </c>
       <c r="C82">
         <v>1000000</v>
       </c>
       <c r="D82">
-        <v>12909363.79000001</v>
+        <v>813920.0000000012</v>
       </c>
       <c r="E82">
-        <v>7042652.459999999</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>7042652.459999999</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="H82">
-        <v>6618499.360000001</v>
+        <v>186280.0000000008</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>6618499.360000001</v>
+        <v>186280.0000000008</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3040,31 +3040,31 @@
         <v>43959</v>
       </c>
       <c r="B83">
-        <v>13909363.79000001</v>
+        <v>1813920.000000001</v>
       </c>
       <c r="C83">
         <v>1000000</v>
       </c>
       <c r="D83">
-        <v>12909363.79000001</v>
+        <v>813920.0000000012</v>
       </c>
       <c r="E83">
-        <v>7042652.459999999</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>7042652.459999999</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="H83">
-        <v>7036845.459999996</v>
+        <v>220480.0000000003</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>7036845.459999996</v>
+        <v>220480.0000000003</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3072,31 +3072,31 @@
         <v>43962</v>
       </c>
       <c r="B84">
-        <v>13909363.79000001</v>
+        <v>1813920.000000001</v>
       </c>
       <c r="C84">
         <v>1000000</v>
       </c>
       <c r="D84">
-        <v>12909363.79000001</v>
+        <v>813920.0000000012</v>
       </c>
       <c r="E84">
-        <v>7042652.459999999</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>7042652.459999999</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="H84">
-        <v>7065312.96</v>
+        <v>219480.0000000007</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>7065312.96</v>
+        <v>219480.0000000007</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3104,31 +3104,31 @@
         <v>43963</v>
       </c>
       <c r="B85">
-        <v>13909363.79000001</v>
+        <v>1813920.000000001</v>
       </c>
       <c r="C85">
         <v>1000000</v>
       </c>
       <c r="D85">
-        <v>12909363.79000001</v>
+        <v>813920.0000000012</v>
       </c>
       <c r="E85">
-        <v>7042652.459999999</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>7042652.459999999</v>
+        <v>193080.0000000008</v>
       </c>
       <c r="H85">
-        <v>6987346.359999998</v>
+        <v>209680.0000000005</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>6987346.359999998</v>
+        <v>209680.0000000005</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3136,31 +3136,31 @@
         <v>43964</v>
       </c>
       <c r="B86">
-        <v>17943705.50600001</v>
+        <v>2208080.000000001</v>
       </c>
       <c r="C86">
         <v>1000000</v>
       </c>
       <c r="D86">
-        <v>16943705.50600001</v>
+        <v>1208080.000000001</v>
       </c>
       <c r="E86">
-        <v>6903352.259999999</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>6903352.259999999</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="H86">
-        <v>7007154.5</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>7007154.5</v>
+        <v>208080.0000000008</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3168,31 +3168,31 @@
         <v>43965</v>
       </c>
       <c r="B87">
-        <v>12719669.90600001</v>
+        <v>1825260.000000001</v>
       </c>
       <c r="C87">
         <v>1000000</v>
       </c>
       <c r="D87">
-        <v>11719669.90600001</v>
+        <v>825260.0000000012</v>
       </c>
       <c r="E87">
-        <v>6903352.259999999</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>6903352.259999999</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="H87">
-        <v>8126359.419999998</v>
+        <v>213880.0000000006</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>8126359.419999998</v>
+        <v>213880.0000000006</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3200,31 +3200,31 @@
         <v>43966</v>
       </c>
       <c r="B88">
-        <v>12719669.90600001</v>
+        <v>1825260.000000001</v>
       </c>
       <c r="C88">
         <v>1000000</v>
       </c>
       <c r="D88">
-        <v>11719669.90600001</v>
+        <v>825260.0000000012</v>
       </c>
       <c r="E88">
-        <v>6903352.259999999</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>6903352.259999999</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="H88">
-        <v>6703805.299999996</v>
+        <v>258080.0000000008</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>6703805.299999996</v>
+        <v>258080.0000000008</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3232,31 +3232,31 @@
         <v>43969</v>
       </c>
       <c r="B89">
-        <v>12719669.90600001</v>
+        <v>1825260.000000001</v>
       </c>
       <c r="C89">
         <v>1000000</v>
       </c>
       <c r="D89">
-        <v>11719669.90600001</v>
+        <v>825260.0000000012</v>
       </c>
       <c r="E89">
-        <v>6903352.259999999</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>6903352.259999999</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="H89">
-        <v>5325003.899999999</v>
+        <v>331080.0000000009</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>5325003.899999999</v>
+        <v>331080.0000000009</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3264,31 +3264,31 @@
         <v>43970</v>
       </c>
       <c r="B90">
-        <v>12719669.90600001</v>
+        <v>1825260.000000001</v>
       </c>
       <c r="C90">
         <v>1000000</v>
       </c>
       <c r="D90">
-        <v>11719669.90600001</v>
+        <v>825260.0000000012</v>
       </c>
       <c r="E90">
-        <v>6903352.259999999</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>6903352.259999999</v>
+        <v>208080.0000000008</v>
       </c>
       <c r="H90">
-        <v>3426346.720000003</v>
+        <v>318880.0000000007</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>3426346.720000003</v>
+        <v>318880.0000000007</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3296,31 +3296,31 @@
         <v>43971</v>
       </c>
       <c r="B91">
-        <v>18077078.91235141</v>
+        <v>2319280.000000001</v>
       </c>
       <c r="C91">
         <v>1000000</v>
       </c>
       <c r="D91">
-        <v>17077078.91235141</v>
+        <v>1319280.000000001</v>
       </c>
       <c r="E91">
-        <v>4095867.399999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>4095867.399999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="H91">
-        <v>4253344.739999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>4253344.739999998</v>
+        <v>319280.0000000009</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3328,31 +3328,31 @@
         <v>43972</v>
       </c>
       <c r="B92">
-        <v>5309022.282351415</v>
+        <v>1921880.000000001</v>
       </c>
       <c r="C92">
         <v>1000000</v>
       </c>
       <c r="D92">
-        <v>4309022.282351415</v>
+        <v>921880.0000000014</v>
       </c>
       <c r="E92">
-        <v>4095867.399999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>4095867.399999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="H92">
-        <v>3464806.219999993</v>
+        <v>314680.0000000011</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>3464806.219999993</v>
+        <v>314680.0000000011</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3360,31 +3360,31 @@
         <v>43973</v>
       </c>
       <c r="B93">
-        <v>5309022.282351415</v>
+        <v>1921880.000000001</v>
       </c>
       <c r="C93">
         <v>1000000</v>
       </c>
       <c r="D93">
-        <v>4309022.282351415</v>
+        <v>921880.0000000014</v>
       </c>
       <c r="E93">
-        <v>4095867.399999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>4095867.399999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="H93">
-        <v>3786065.260000004</v>
+        <v>272480.0000000014</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>3786065.260000004</v>
+        <v>272480.0000000014</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3392,31 +3392,31 @@
         <v>43976</v>
       </c>
       <c r="B94">
-        <v>5309022.282351415</v>
+        <v>1921880.000000001</v>
       </c>
       <c r="C94">
         <v>1000000</v>
       </c>
       <c r="D94">
-        <v>4309022.282351415</v>
+        <v>921880.0000000014</v>
       </c>
       <c r="E94">
-        <v>4095867.399999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>4095867.399999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="H94">
-        <v>4597896.459999997</v>
+        <v>286280.0000000013</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>4597896.459999997</v>
+        <v>286280.0000000013</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3424,31 +3424,31 @@
         <v>43977</v>
       </c>
       <c r="B95">
-        <v>5309022.282351415</v>
+        <v>1921880.000000001</v>
       </c>
       <c r="C95">
         <v>1000000</v>
       </c>
       <c r="D95">
-        <v>4309022.282351415</v>
+        <v>921880.0000000014</v>
       </c>
       <c r="E95">
-        <v>4095867.399999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>4095867.399999998</v>
+        <v>319280.0000000009</v>
       </c>
       <c r="H95">
-        <v>3446222.779999993</v>
+        <v>294280.0000000009</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>3446222.779999993</v>
+        <v>294280.0000000009</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3456,31 +3456,31 @@
         <v>43978</v>
       </c>
       <c r="B96">
-        <v>21074582.06454866</v>
+        <v>2289280.000000001</v>
       </c>
       <c r="C96">
         <v>1000000</v>
       </c>
       <c r="D96">
-        <v>20074582.06454866</v>
+        <v>1289280.000000001</v>
       </c>
       <c r="E96">
-        <v>3081221.399999991</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>3081221.399999991</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="H96">
-        <v>3045567.89999999</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>3045567.89999999</v>
+        <v>289280.0000000009</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3488,31 +3488,31 @@
         <v>43979</v>
       </c>
       <c r="B97">
-        <v>13044750.80054866</v>
+        <v>1899800.000000001</v>
       </c>
       <c r="C97">
         <v>1000000</v>
       </c>
       <c r="D97">
-        <v>12044750.80054866</v>
+        <v>899800.0000000014</v>
       </c>
       <c r="E97">
-        <v>3081221.399999991</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>3081221.399999991</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="H97">
-        <v>3384107.019999993</v>
+        <v>306680.0000000009</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>3384107.019999993</v>
+        <v>306680.0000000009</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3520,31 +3520,31 @@
         <v>43980</v>
       </c>
       <c r="B98">
-        <v>13044750.80054866</v>
+        <v>1899800.000000001</v>
       </c>
       <c r="C98">
         <v>1000000</v>
       </c>
       <c r="D98">
-        <v>12044750.80054866</v>
+        <v>899800.0000000014</v>
       </c>
       <c r="E98">
-        <v>3081221.399999991</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>3081221.399999991</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="H98">
-        <v>3878372.799999985</v>
+        <v>335280.0000000005</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>3878372.799999985</v>
+        <v>335280.0000000005</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3552,31 +3552,31 @@
         <v>43983</v>
       </c>
       <c r="B99">
-        <v>13044750.80054866</v>
+        <v>1899800.000000001</v>
       </c>
       <c r="C99">
         <v>1000000</v>
       </c>
       <c r="D99">
-        <v>12044750.80054866</v>
+        <v>899800.0000000014</v>
       </c>
       <c r="E99">
-        <v>3081221.399999991</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>3081221.399999991</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="H99">
-        <v>4438203.039999994</v>
+        <v>366080.0000000009</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>4438203.039999994</v>
+        <v>366080.0000000009</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3584,31 +3584,31 @@
         <v>43984</v>
       </c>
       <c r="B100">
-        <v>13044750.80054866</v>
+        <v>1899800.000000001</v>
       </c>
       <c r="C100">
         <v>1000000</v>
       </c>
       <c r="D100">
-        <v>12044750.80054866</v>
+        <v>899800.0000000014</v>
       </c>
       <c r="E100">
-        <v>3081221.399999991</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>3081221.399999991</v>
+        <v>289280.0000000009</v>
       </c>
       <c r="H100">
-        <v>4354703.939999988</v>
+        <v>365080.0000000007</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>4354703.939999988</v>
+        <v>365080.0000000007</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3616,31 +3616,31 @@
         <v>43985</v>
       </c>
       <c r="B101">
-        <v>33310813.55270249</v>
+        <v>2364680</v>
       </c>
       <c r="C101">
         <v>1000000</v>
       </c>
       <c r="D101">
-        <v>32310813.55270249</v>
+        <v>1364680.000000001</v>
       </c>
       <c r="E101">
-        <v>4204129.279999983</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>4204129.279999983</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="H101">
-        <v>4250589.059999986</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>4250589.059999986</v>
+        <v>364680.0000000005</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3648,31 +3648,31 @@
         <v>43986</v>
       </c>
       <c r="B102">
-        <v>27568460.15270249</v>
+        <v>1975180</v>
       </c>
       <c r="C102">
         <v>1000000</v>
       </c>
       <c r="D102">
-        <v>26568460.15270249</v>
+        <v>975180.0000000009</v>
       </c>
       <c r="E102">
-        <v>4204129.279999983</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>4204129.279999983</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="H102">
-        <v>4845406.339999983</v>
+        <v>365080.0000000007</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>4845406.339999983</v>
+        <v>365080.0000000007</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3680,31 +3680,31 @@
         <v>43987</v>
       </c>
       <c r="B103">
-        <v>27568460.15270249</v>
+        <v>1975180</v>
       </c>
       <c r="C103">
         <v>1000000</v>
       </c>
       <c r="D103">
-        <v>26568460.15270249</v>
+        <v>975180.0000000009</v>
       </c>
       <c r="E103">
-        <v>4204129.279999983</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>4204129.279999983</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="H103">
-        <v>5182434.419999987</v>
+        <v>384880.0000000003</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>5182434.419999987</v>
+        <v>384880.0000000003</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3712,31 +3712,31 @@
         <v>43990</v>
       </c>
       <c r="B104">
-        <v>27568460.15270249</v>
+        <v>1975180</v>
       </c>
       <c r="C104">
         <v>1000000</v>
       </c>
       <c r="D104">
-        <v>26568460.15270249</v>
+        <v>975180.0000000009</v>
       </c>
       <c r="E104">
-        <v>4204129.279999983</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>4204129.279999983</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="H104">
-        <v>3120103.319999988</v>
+        <v>312880.0000000005</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>3120103.319999988</v>
+        <v>312880.0000000005</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3744,31 +3744,31 @@
         <v>43991</v>
       </c>
       <c r="B105">
-        <v>27568460.15270249</v>
+        <v>1975180</v>
       </c>
       <c r="C105">
         <v>1000000</v>
       </c>
       <c r="D105">
-        <v>26568460.15270249</v>
+        <v>975180.0000000009</v>
       </c>
       <c r="E105">
-        <v>4204129.279999983</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>4204129.279999983</v>
+        <v>364680.0000000005</v>
       </c>
       <c r="H105">
-        <v>3513219.239999983</v>
+        <v>328080.0000000003</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>3513219.239999983</v>
+        <v>328080.0000000003</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3776,31 +3776,31 @@
         <v>43992</v>
       </c>
       <c r="B106">
-        <v>45583182.99670248</v>
+        <v>2373680</v>
       </c>
       <c r="C106">
         <v>1000000</v>
       </c>
       <c r="D106">
-        <v>44583182.99670248</v>
+        <v>1373680.000000001</v>
       </c>
       <c r="E106">
-        <v>4273322.899999982</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>4273322.899999982</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="H106">
-        <v>4187263.299999984</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>4187263.299999984</v>
+        <v>373680.0000000003</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3808,31 +3808,31 @@
         <v>43993</v>
       </c>
       <c r="B107">
-        <v>38752322.43670248</v>
+        <v>1982480</v>
       </c>
       <c r="C107">
         <v>1000000</v>
       </c>
       <c r="D107">
-        <v>37752322.43670248</v>
+        <v>982480.0000000007</v>
       </c>
       <c r="E107">
-        <v>4273322.899999982</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>4273322.899999982</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="H107">
-        <v>4496147.839999985</v>
+        <v>377480.0000000002</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>4496147.839999985</v>
+        <v>377480.0000000002</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3840,31 +3840,31 @@
         <v>43994</v>
       </c>
       <c r="B108">
-        <v>38752322.43670248</v>
+        <v>1982480</v>
       </c>
       <c r="C108">
         <v>1000000</v>
       </c>
       <c r="D108">
-        <v>37752322.43670248</v>
+        <v>982480.0000000007</v>
       </c>
       <c r="E108">
-        <v>4273322.899999982</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>4273322.899999982</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="H108">
-        <v>6014718.439999983</v>
+        <v>399480.0000000002</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>6014718.439999983</v>
+        <v>399480.0000000002</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3872,31 +3872,31 @@
         <v>43997</v>
       </c>
       <c r="B109">
-        <v>38752322.43670248</v>
+        <v>1982480</v>
       </c>
       <c r="C109">
         <v>1000000</v>
       </c>
       <c r="D109">
-        <v>37752322.43670248</v>
+        <v>982480.0000000007</v>
       </c>
       <c r="E109">
-        <v>4273322.899999982</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>4273322.899999982</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="H109">
-        <v>6192983.079999993</v>
+        <v>400280.0000000006</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>6192983.079999993</v>
+        <v>400280.0000000006</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3904,31 +3904,31 @@
         <v>43998</v>
       </c>
       <c r="B110">
-        <v>38752322.43670248</v>
+        <v>1982480</v>
       </c>
       <c r="C110">
         <v>1000000</v>
       </c>
       <c r="D110">
-        <v>37752322.43670248</v>
+        <v>982480.0000000007</v>
       </c>
       <c r="E110">
-        <v>4273322.899999982</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>4273322.899999982</v>
+        <v>373680.0000000003</v>
       </c>
       <c r="H110">
-        <v>5698896.259999989</v>
+        <v>372880.0000000005</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>5698896.259999989</v>
+        <v>372880.0000000005</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3936,31 +3936,31 @@
         <v>43999</v>
       </c>
       <c r="B111">
-        <v>45599303.89097316</v>
+        <v>2386880</v>
       </c>
       <c r="C111">
         <v>1000000</v>
       </c>
       <c r="D111">
-        <v>44599303.89097316</v>
+        <v>1386880.000000001</v>
       </c>
       <c r="E111">
-        <v>4512760.659999981</v>
+        <v>386880.0000000002</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>4512760.659999981</v>
+        <v>386880.0000000002</v>
       </c>
       <c r="H111">
-        <v>5050693.25999999</v>
+        <v>386880.0000000003</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>5050693.25999999</v>
+        <v>386880.0000000003</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3968,31 +3968,31 @@
         <v>44000</v>
       </c>
       <c r="B112">
-        <v>41263764.58097316</v>
+        <v>1995380</v>
       </c>
       <c r="C112">
         <v>1000000</v>
       </c>
       <c r="D112">
-        <v>40263764.58097316</v>
+        <v>995380.0000000007</v>
       </c>
       <c r="E112">
-        <v>4512760.659999981</v>
+        <v>386880.0000000002</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>4512760.659999981</v>
+        <v>386880.0000000002</v>
       </c>
       <c r="H112">
-        <v>5088560.359999995</v>
+        <v>394680</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>5088560.359999995</v>
+        <v>394680</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4000,31 +4000,31 @@
         <v>44001</v>
       </c>
       <c r="B113">
-        <v>41263764.58097316</v>
+        <v>1995380</v>
       </c>
       <c r="C113">
         <v>1000000</v>
       </c>
       <c r="D113">
-        <v>40263764.58097316</v>
+        <v>995380.0000000007</v>
       </c>
       <c r="E113">
-        <v>4512760.659999981</v>
+        <v>386880.0000000002</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>4512760.659999981</v>
+        <v>386880.0000000002</v>
       </c>
       <c r="H113">
-        <v>4517457.959999992</v>
+        <v>394480.0000000002</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>4517457.959999992</v>
+        <v>394480.0000000002</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4032,31 +4032,31 @@
         <v>44004</v>
       </c>
       <c r="B114">
-        <v>41263764.58097316</v>
+        <v>1995380</v>
       </c>
       <c r="C114">
         <v>1000000</v>
       </c>
       <c r="D114">
-        <v>40263764.58097316</v>
+        <v>995380.0000000007</v>
       </c>
       <c r="E114">
-        <v>4512760.659999981</v>
+        <v>386880.0000000002</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>4512760.659999981</v>
+        <v>386880.0000000002</v>
       </c>
       <c r="H114">
-        <v>4109389.95999999</v>
+        <v>435080.0000000002</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>4109389.95999999</v>
+        <v>435080.0000000002</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4064,31 +4064,31 @@
         <v>44005</v>
       </c>
       <c r="B115">
-        <v>41263764.58097316</v>
+        <v>1995380</v>
       </c>
       <c r="C115">
         <v>1000000</v>
       </c>
       <c r="D115">
-        <v>40263764.58097316</v>
+        <v>995380.0000000007</v>
       </c>
       <c r="E115">
-        <v>4512760.659999981</v>
+        <v>386880.0000000002</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>4512760.659999981</v>
+        <v>386880.0000000002</v>
       </c>
       <c r="H115">
-        <v>4124610.359999991</v>
+        <v>446480.0000000001</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>4124610.359999991</v>
+        <v>446480.0000000001</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4096,31 +4096,31 @@
         <v>44006</v>
       </c>
       <c r="B116">
-        <v>51295605.69957394</v>
+        <v>2453280</v>
       </c>
       <c r="C116">
         <v>1000000</v>
       </c>
       <c r="D116">
-        <v>50295605.69957394</v>
+        <v>1453280</v>
       </c>
       <c r="E116">
-        <v>3769555.259999984</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>3769555.259999984</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="H116">
-        <v>3877029.059999994</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>3877029.059999994</v>
+        <v>453280.0000000001</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4128,31 +4128,31 @@
         <v>44011</v>
       </c>
       <c r="B117">
-        <v>48752797.57157394</v>
+        <v>2092416</v>
       </c>
       <c r="C117">
         <v>1000000</v>
       </c>
       <c r="D117">
-        <v>47752797.57157394</v>
+        <v>1092416</v>
       </c>
       <c r="E117">
-        <v>3769555.259999984</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>3769555.259999984</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="H117">
-        <v>4033081.639999992</v>
+        <v>447520.0000000002</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>4033081.639999992</v>
+        <v>447520.0000000002</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4160,31 +4160,31 @@
         <v>44012</v>
       </c>
       <c r="B118">
-        <v>48752797.57157394</v>
+        <v>2092416</v>
       </c>
       <c r="C118">
         <v>1000000</v>
       </c>
       <c r="D118">
-        <v>47752797.57157394</v>
+        <v>1092416</v>
       </c>
       <c r="E118">
-        <v>3769555.259999984</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>3769555.259999984</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="H118">
-        <v>4022304.599999995</v>
+        <v>446800.0000000003</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>4022304.599999995</v>
+        <v>446800.0000000003</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4192,31 +4192,31 @@
         <v>44013</v>
       </c>
       <c r="B119">
-        <v>48752797.57157394</v>
+        <v>2092416</v>
       </c>
       <c r="C119">
         <v>1000000</v>
       </c>
       <c r="D119">
-        <v>47752797.57157394</v>
+        <v>1092416</v>
       </c>
       <c r="E119">
-        <v>3769555.259999984</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>3769555.259999984</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="H119">
-        <v>4151711.359999996</v>
+        <v>463180.0000000003</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>4151711.359999996</v>
+        <v>463180.0000000003</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4224,31 +4224,31 @@
         <v>44014</v>
       </c>
       <c r="B120">
-        <v>48752797.57157394</v>
+        <v>2092416</v>
       </c>
       <c r="C120">
         <v>1000000</v>
       </c>
       <c r="D120">
-        <v>47752797.57157394</v>
+        <v>1092416</v>
       </c>
       <c r="E120">
-        <v>3769555.259999984</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>3769555.259999984</v>
+        <v>453280.0000000001</v>
       </c>
       <c r="H120">
-        <v>3907364.839999996</v>
+        <v>439420.0000000004</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>3907364.839999996</v>
+        <v>439420.0000000004</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4256,31 +4256,31 @@
         <v>44015</v>
       </c>
       <c r="B121">
-        <v>55003327.88957395</v>
+        <v>2424840.000000001</v>
       </c>
       <c r="C121">
         <v>1000000</v>
       </c>
       <c r="D121">
-        <v>54003327.88957395</v>
+        <v>1424840.000000001</v>
       </c>
       <c r="E121">
-        <v>3447942.379999986</v>
+        <v>424840.0000000004</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>3447942.379999986</v>
+        <v>424840.0000000004</v>
       </c>
       <c r="H121">
-        <v>3692739.679999996</v>
+        <v>424840.0000000003</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>3692739.679999996</v>
+        <v>424840.0000000003</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4288,31 +4288,31 @@
         <v>44018</v>
       </c>
       <c r="B122">
-        <v>49382246.29357395</v>
+        <v>2064138.000000001</v>
       </c>
       <c r="C122">
         <v>1000000</v>
       </c>
       <c r="D122">
-        <v>48382246.29357395</v>
+        <v>1064138.000000001</v>
       </c>
       <c r="E122">
-        <v>3447942.379999986</v>
+        <v>424840.0000000004</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <v>3447942.379999986</v>
+        <v>424840.0000000004</v>
       </c>
       <c r="H122">
-        <v>3668758.039999996</v>
+        <v>417460.0000000004</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>3668758.039999996</v>
+        <v>417460.0000000004</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4320,31 +4320,31 @@
         <v>44019</v>
       </c>
       <c r="B123">
-        <v>49382246.29357395</v>
+        <v>2064138.000000001</v>
       </c>
       <c r="C123">
         <v>1000000</v>
       </c>
       <c r="D123">
-        <v>48382246.29357395</v>
+        <v>1064138.000000001</v>
       </c>
       <c r="E123">
-        <v>3447942.379999986</v>
+        <v>424840.0000000004</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>3447942.379999986</v>
+        <v>424840.0000000004</v>
       </c>
       <c r="H123">
-        <v>3637955.519999995</v>
+        <v>421420.0000000004</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>3637955.519999995</v>
+        <v>421420.0000000004</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4352,31 +4352,31 @@
         <v>44020</v>
       </c>
       <c r="B124">
-        <v>49382246.29357395</v>
+        <v>2064138.000000001</v>
       </c>
       <c r="C124">
         <v>1000000</v>
       </c>
       <c r="D124">
-        <v>48382246.29357395</v>
+        <v>1064138.000000001</v>
       </c>
       <c r="E124">
-        <v>3447942.379999986</v>
+        <v>424840.0000000004</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>3447942.379999986</v>
+        <v>424840.0000000004</v>
       </c>
       <c r="H124">
-        <v>3650173.119999999</v>
+        <v>434920.0000000004</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>3650173.119999999</v>
+        <v>434920.0000000004</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4384,31 +4384,31 @@
         <v>44021</v>
       </c>
       <c r="B125">
-        <v>49382246.29357395</v>
+        <v>2064138.000000001</v>
       </c>
       <c r="C125">
         <v>1000000</v>
       </c>
       <c r="D125">
-        <v>48382246.29357395</v>
+        <v>1064138.000000001</v>
       </c>
       <c r="E125">
-        <v>3447942.379999986</v>
+        <v>424840.0000000004</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125">
-        <v>3447942.379999986</v>
+        <v>424840.0000000004</v>
       </c>
       <c r="H125">
-        <v>3889179.459999997</v>
+        <v>463900.0000000006</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>3889179.459999997</v>
+        <v>463900.0000000006</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4416,31 +4416,31 @@
         <v>44022</v>
       </c>
       <c r="B126">
-        <v>55199767.66957395</v>
+        <v>2458320.000000001</v>
       </c>
       <c r="C126">
         <v>1000000</v>
       </c>
       <c r="D126">
-        <v>54199767.66957395</v>
+        <v>1458320.000000001</v>
       </c>
       <c r="E126">
-        <v>3562346.219999989</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>3562346.219999989</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="H126">
-        <v>3807143.519999998</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>3807143.519999998</v>
+        <v>458320.0000000006</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4448,31 +4448,31 @@
         <v>44025</v>
       </c>
       <c r="B127">
-        <v>47335568.10957395</v>
+        <v>2094810.000000001</v>
       </c>
       <c r="C127">
         <v>1000000</v>
       </c>
       <c r="D127">
-        <v>46335568.10957395</v>
+        <v>1094810.000000001</v>
       </c>
       <c r="E127">
-        <v>3562346.219999989</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>3562346.219999989</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="H127">
-        <v>3517203.659999999</v>
+        <v>450760.0000000008</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>3517203.659999999</v>
+        <v>450760.0000000008</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4480,31 +4480,31 @@
         <v>44026</v>
       </c>
       <c r="B128">
-        <v>47335568.10957395</v>
+        <v>2094810.000000001</v>
       </c>
       <c r="C128">
         <v>1000000</v>
       </c>
       <c r="D128">
-        <v>46335568.10957395</v>
+        <v>1094810.000000001</v>
       </c>
       <c r="E128">
-        <v>3562346.219999989</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128">
-        <v>3562346.219999989</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="H128">
-        <v>3828770.860000004</v>
+        <v>453460.0000000009</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>3828770.860000004</v>
+        <v>453460.0000000009</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4512,31 +4512,31 @@
         <v>44027</v>
       </c>
       <c r="B129">
-        <v>47335568.10957395</v>
+        <v>2094810.000000001</v>
       </c>
       <c r="C129">
         <v>1000000</v>
       </c>
       <c r="D129">
-        <v>46335568.10957395</v>
+        <v>1094810.000000001</v>
       </c>
       <c r="E129">
-        <v>3562346.219999989</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>3562346.219999989</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="H129">
-        <v>3746084.459999999</v>
+        <v>457060.0000000008</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>3746084.459999999</v>
+        <v>457060.0000000008</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4544,31 +4544,31 @@
         <v>44028</v>
       </c>
       <c r="B130">
-        <v>47335568.10957395</v>
+        <v>2094810.000000001</v>
       </c>
       <c r="C130">
         <v>1000000</v>
       </c>
       <c r="D130">
-        <v>46335568.10957395</v>
+        <v>1094810.000000001</v>
       </c>
       <c r="E130">
-        <v>3562346.219999989</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130">
-        <v>3562346.219999989</v>
+        <v>458320.0000000006</v>
       </c>
       <c r="H130">
-        <v>3778783.600000001</v>
+        <v>449500.000000001</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>3778783.600000001</v>
+        <v>449500.000000001</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4576,31 +4576,31 @@
         <v>44029</v>
       </c>
       <c r="B131">
-        <v>53491890.48957395</v>
+        <v>2438520.000000001</v>
       </c>
       <c r="C131">
         <v>1000000</v>
       </c>
       <c r="D131">
-        <v>52491890.48957395</v>
+        <v>1438520.000000001</v>
       </c>
       <c r="E131">
-        <v>3466913.219999992</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>3466913.219999992</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="H131">
-        <v>3873845.52</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>3873845.52</v>
+        <v>438520.0000000008</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4608,31 +4608,31 @@
         <v>44032</v>
       </c>
       <c r="B132">
-        <v>50146425.98957395</v>
+        <v>2077602.000000001</v>
       </c>
       <c r="C132">
         <v>1000000</v>
       </c>
       <c r="D132">
-        <v>49146425.98957395</v>
+        <v>1077602.000000001</v>
       </c>
       <c r="E132">
-        <v>3466913.219999992</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>3466913.219999992</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="H132">
-        <v>4616177.500000003</v>
+        <v>439060.0000000008</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>4616177.500000003</v>
+        <v>439060.0000000008</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4640,31 +4640,31 @@
         <v>44033</v>
       </c>
       <c r="B133">
-        <v>50146425.98957395</v>
+        <v>2077602.000000001</v>
       </c>
       <c r="C133">
         <v>1000000</v>
       </c>
       <c r="D133">
-        <v>49146425.98957395</v>
+        <v>1077602.000000001</v>
       </c>
       <c r="E133">
-        <v>3466913.219999992</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>3466913.219999992</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="H133">
-        <v>4463725.52</v>
+        <v>458140.0000000009</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>4463725.52</v>
+        <v>458140.0000000009</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -4672,31 +4672,31 @@
         <v>44034</v>
       </c>
       <c r="B134">
-        <v>50146425.98957395</v>
+        <v>2077602.000000001</v>
       </c>
       <c r="C134">
         <v>1000000</v>
       </c>
       <c r="D134">
-        <v>49146425.98957395</v>
+        <v>1077602.000000001</v>
       </c>
       <c r="E134">
-        <v>3466913.219999992</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>3466913.219999992</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="H134">
-        <v>3813347.26</v>
+        <v>536800.0000000009</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>3813347.26</v>
+        <v>536800.0000000009</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4704,31 +4704,31 @@
         <v>44035</v>
       </c>
       <c r="B135">
-        <v>50146425.98957395</v>
+        <v>2077602.000000001</v>
       </c>
       <c r="C135">
         <v>1000000</v>
       </c>
       <c r="D135">
-        <v>49146425.98957395</v>
+        <v>1077602.000000001</v>
       </c>
       <c r="E135">
-        <v>3466913.219999992</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>3466913.219999992</v>
+        <v>438520.0000000008</v>
       </c>
       <c r="H135">
-        <v>4270748.779999998</v>
+        <v>554980.0000000008</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>4270748.779999998</v>
+        <v>554980.0000000008</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -4736,31 +4736,31 @@
         <v>44036</v>
       </c>
       <c r="B136">
-        <v>58936148.77771813</v>
+        <v>2573700.000000001</v>
       </c>
       <c r="C136">
         <v>1000000</v>
       </c>
       <c r="D136">
-        <v>57936148.77771813</v>
+        <v>1573700.000000001</v>
       </c>
       <c r="E136">
-        <v>3787633.059999994</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <v>3787633.059999994</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="H136">
-        <v>4414907.56</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>4414907.56</v>
+        <v>573700.0000000012</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -4768,31 +4768,31 @@
         <v>44039</v>
       </c>
       <c r="B137">
-        <v>44913651.49771813</v>
+        <v>2193540.000000001</v>
       </c>
       <c r="C137">
         <v>1000000</v>
       </c>
       <c r="D137">
-        <v>43913651.49771813</v>
+        <v>1193540.000000001</v>
       </c>
       <c r="E137">
-        <v>3787633.059999994</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137">
-        <v>3787633.059999994</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="H137">
-        <v>6253196.100000015</v>
+        <v>618880.0000000015</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137">
-        <v>6253196.100000015</v>
+        <v>618880.0000000015</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -4800,31 +4800,31 @@
         <v>44040</v>
       </c>
       <c r="B138">
-        <v>44913651.49771813</v>
+        <v>2193540.000000001</v>
       </c>
       <c r="C138">
         <v>1000000</v>
       </c>
       <c r="D138">
-        <v>43913651.49771813</v>
+        <v>1193540.000000001</v>
       </c>
       <c r="E138">
-        <v>3787633.059999994</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>3787633.059999994</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="H138">
-        <v>7949937.220000009</v>
+        <v>666220.0000000015</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>7949937.220000009</v>
+        <v>666220.0000000015</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -4832,31 +4832,31 @@
         <v>44041</v>
       </c>
       <c r="B139">
-        <v>44913651.49771813</v>
+        <v>2193540.000000001</v>
       </c>
       <c r="C139">
         <v>1000000</v>
       </c>
       <c r="D139">
-        <v>43913651.49771813</v>
+        <v>1193540.000000001</v>
       </c>
       <c r="E139">
-        <v>3787633.059999994</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>3787633.059999994</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="H139">
-        <v>7353696.620000014</v>
+        <v>641920.0000000016</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>7353696.620000014</v>
+        <v>641920.0000000016</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -4864,31 +4864,31 @@
         <v>44042</v>
       </c>
       <c r="B140">
-        <v>44913651.49771813</v>
+        <v>2193540.000000001</v>
       </c>
       <c r="C140">
         <v>1000000</v>
       </c>
       <c r="D140">
-        <v>43913651.49771813</v>
+        <v>1193540.000000001</v>
       </c>
       <c r="E140">
-        <v>3787633.059999994</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>3787633.059999994</v>
+        <v>573700.0000000012</v>
       </c>
       <c r="H140">
-        <v>7438467.460000015</v>
+        <v>647500.0000000016</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>7438467.460000015</v>
+        <v>647500.0000000016</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -4896,31 +4896,31 @@
         <v>44043</v>
       </c>
       <c r="B141">
-        <v>62974843.71207809</v>
+        <v>2615100.000000002</v>
       </c>
       <c r="C141">
         <v>1000000</v>
       </c>
       <c r="D141">
-        <v>61974843.71207809</v>
+        <v>1615100.000000002</v>
       </c>
       <c r="E141">
-        <v>5136344.060000001</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141">
-        <v>5136344.060000001</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="H141">
-        <v>6402747.680000009</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141">
-        <v>6402747.680000009</v>
+        <v>615100.0000000014</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -4928,31 +4928,31 @@
         <v>44046</v>
       </c>
       <c r="B142">
-        <v>59535550.44207809</v>
+        <v>2225706.000000002</v>
       </c>
       <c r="C142">
         <v>1000000</v>
       </c>
       <c r="D142">
-        <v>58535550.44207809</v>
+        <v>1225706.000000002</v>
       </c>
       <c r="E142">
-        <v>5136344.060000001</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>5136344.060000001</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="H142">
-        <v>7047599.360000012</v>
+        <v>602860.0000000013</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>7047599.360000012</v>
+        <v>602860.0000000013</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -4960,31 +4960,31 @@
         <v>44047</v>
       </c>
       <c r="B143">
-        <v>59535550.44207809</v>
+        <v>2225706.000000002</v>
       </c>
       <c r="C143">
         <v>1000000</v>
       </c>
       <c r="D143">
-        <v>58535550.44207809</v>
+        <v>1225706.000000002</v>
       </c>
       <c r="E143">
-        <v>5136344.060000001</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>5136344.060000001</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="H143">
-        <v>7016285.620000007</v>
+        <v>606280.0000000013</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>7016285.620000007</v>
+        <v>606280.0000000013</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -4992,31 +4992,31 @@
         <v>44048</v>
       </c>
       <c r="B144">
-        <v>59535550.44207809</v>
+        <v>2225706.000000002</v>
       </c>
       <c r="C144">
         <v>1000000</v>
       </c>
       <c r="D144">
-        <v>58535550.44207809</v>
+        <v>1225706.000000002</v>
       </c>
       <c r="E144">
-        <v>5136344.060000001</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>5136344.060000001</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="H144">
-        <v>7588337.740000008</v>
+        <v>671620.0000000013</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144">
-        <v>7588337.740000008</v>
+        <v>671620.0000000013</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5024,31 +5024,31 @@
         <v>44049</v>
       </c>
       <c r="B145">
-        <v>59535550.44207809</v>
+        <v>2225706.000000002</v>
       </c>
       <c r="C145">
         <v>1000000</v>
       </c>
       <c r="D145">
-        <v>58535550.44207809</v>
+        <v>1225706.000000002</v>
       </c>
       <c r="E145">
-        <v>5136344.060000001</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>5136344.060000001</v>
+        <v>615100.0000000014</v>
       </c>
       <c r="H145">
-        <v>7522184.700000009</v>
+        <v>731740.0000000013</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145">
-        <v>7522184.700000009</v>
+        <v>731740.0000000013</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5056,31 +5056,31 @@
         <v>44050</v>
       </c>
       <c r="B146">
-        <v>79524594.3320781</v>
+        <v>2754060.000000002</v>
       </c>
       <c r="C146">
         <v>1000000</v>
       </c>
       <c r="D146">
-        <v>78524594.3320781</v>
+        <v>1754060.000000001</v>
       </c>
       <c r="E146">
-        <v>6423010.060000005</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>6423010.060000005</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="H146">
-        <v>7556980.460000009</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
-        <v>7556980.460000009</v>
+        <v>754060.0000000014</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5088,31 +5088,31 @@
         <v>44053</v>
       </c>
       <c r="B147">
-        <v>66405613.7420781</v>
+        <v>2393340.000000002</v>
       </c>
       <c r="C147">
         <v>1000000</v>
       </c>
       <c r="D147">
-        <v>65405613.7420781</v>
+        <v>1393340.000000001</v>
       </c>
       <c r="E147">
-        <v>6423010.060000005</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>6423010.060000005</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="H147">
-        <v>6261265.980000021</v>
+        <v>718220.0000000016</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>6261265.980000021</v>
+        <v>718220.0000000016</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5120,31 +5120,31 @@
         <v>44054</v>
       </c>
       <c r="B148">
-        <v>66405613.7420781</v>
+        <v>2393340.000000002</v>
       </c>
       <c r="C148">
         <v>1000000</v>
       </c>
       <c r="D148">
-        <v>65405613.7420781</v>
+        <v>1393340.000000001</v>
       </c>
       <c r="E148">
-        <v>6423010.060000005</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
       <c r="G148">
-        <v>6423010.060000005</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="H148">
-        <v>5406022.360000018</v>
+        <v>697260.0000000016</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>5406022.360000018</v>
+        <v>697260.0000000016</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5152,31 +5152,31 @@
         <v>44055</v>
       </c>
       <c r="B149">
-        <v>66405613.7420781</v>
+        <v>2393340.000000002</v>
       </c>
       <c r="C149">
         <v>1000000</v>
       </c>
       <c r="D149">
-        <v>65405613.7420781</v>
+        <v>1393340.000000001</v>
       </c>
       <c r="E149">
-        <v>6423010.060000005</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149">
-        <v>6423010.060000005</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="H149">
-        <v>-929020.5599999856</v>
+        <v>521900.0000000015</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149">
-        <v>-929020.5599999856</v>
+        <v>521900.0000000015</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5184,31 +5184,31 @@
         <v>44056</v>
       </c>
       <c r="B150">
-        <v>66405613.7420781</v>
+        <v>2393340.000000002</v>
       </c>
       <c r="C150">
         <v>1000000</v>
       </c>
       <c r="D150">
-        <v>65405613.7420781</v>
+        <v>1393340.000000001</v>
       </c>
       <c r="E150">
-        <v>6423010.060000005</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
       <c r="G150">
-        <v>6423010.060000005</v>
+        <v>754060.0000000014</v>
       </c>
       <c r="H150">
-        <v>-2191747.899999978</v>
+        <v>487180.0000000017</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150">
-        <v>-2191747.899999978</v>
+        <v>487180.0000000017</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -5216,31 +5216,31 @@
         <v>44057</v>
       </c>
       <c r="B151">
-        <v>73581324.10362808</v>
+        <v>2482380.000000002</v>
       </c>
       <c r="C151">
         <v>1000000</v>
       </c>
       <c r="D151">
-        <v>72581324.10362808</v>
+        <v>1482380.000000002</v>
       </c>
       <c r="E151">
-        <v>-3342398.899999988</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151">
-        <v>-3342398.899999988</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="H151">
-        <v>-2350495.399999985</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>-2350495.399999985</v>
+        <v>482380.0000000016</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5248,31 +5248,31 @@
         <v>44060</v>
       </c>
       <c r="B152">
-        <v>61409248.79362808</v>
+        <v>2102850.000000002</v>
       </c>
       <c r="C152">
         <v>1000000</v>
       </c>
       <c r="D152">
-        <v>60409248.79362808</v>
+        <v>1102850.000000002</v>
       </c>
       <c r="E152">
-        <v>-3342398.899999988</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>-3342398.899999988</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="H152">
-        <v>-2084341.839999981</v>
+        <v>490660.0000000017</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152">
-        <v>-2084341.839999981</v>
+        <v>490660.0000000017</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5280,31 +5280,31 @@
         <v>44061</v>
       </c>
       <c r="B153">
-        <v>61409248.79362808</v>
+        <v>2102850.000000002</v>
       </c>
       <c r="C153">
         <v>1000000</v>
       </c>
       <c r="D153">
-        <v>60409248.79362808</v>
+        <v>1102850.000000002</v>
       </c>
       <c r="E153">
-        <v>-3342398.899999988</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153">
-        <v>-3342398.899999988</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="H153">
-        <v>323542.7800000118</v>
+        <v>565720.0000000015</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>323542.7800000118</v>
+        <v>565720.0000000015</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5312,31 +5312,31 @@
         <v>44062</v>
       </c>
       <c r="B154">
-        <v>61409248.79362808</v>
+        <v>2102850.000000002</v>
       </c>
       <c r="C154">
         <v>1000000</v>
       </c>
       <c r="D154">
-        <v>60409248.79362808</v>
+        <v>1102850.000000002</v>
       </c>
       <c r="E154">
-        <v>-3342398.899999988</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="F154">
         <v>0</v>
       </c>
       <c r="G154">
-        <v>-3342398.899999988</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="H154">
-        <v>554758.1800000152</v>
+        <v>572920.0000000016</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>554758.1800000152</v>
+        <v>572920.0000000016</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5344,31 +5344,31 @@
         <v>44063</v>
       </c>
       <c r="B155">
-        <v>61409248.79362808</v>
+        <v>2102850.000000002</v>
       </c>
       <c r="C155">
         <v>1000000</v>
       </c>
       <c r="D155">
-        <v>60409248.79362808</v>
+        <v>1102850.000000002</v>
       </c>
       <c r="E155">
-        <v>-3342398.899999988</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
-        <v>-3342398.899999988</v>
+        <v>482380.0000000016</v>
       </c>
       <c r="H155">
-        <v>-1875856.67999999</v>
+        <v>497140.0000000015</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155">
-        <v>-1875856.67999999</v>
+        <v>497140.0000000015</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5376,31 +5376,31 @@
         <v>44064</v>
       </c>
       <c r="B156">
-        <v>77848742.49362808</v>
+        <v>2440080.000000002</v>
       </c>
       <c r="C156">
         <v>1000000</v>
       </c>
       <c r="D156">
-        <v>76848742.49362808</v>
+        <v>1440080.000000002</v>
       </c>
       <c r="E156">
-        <v>-4696733.399999985</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>-4696733.399999985</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="H156">
-        <v>-3706063.999999983</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156">
-        <v>-3706063.999999983</v>
+        <v>440080.0000000017</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5408,31 +5408,31 @@
         <v>44067</v>
       </c>
       <c r="B157">
-        <v>60894674.00362808</v>
+        <v>2065410.000000002</v>
       </c>
       <c r="C157">
         <v>1000000</v>
       </c>
       <c r="D157">
-        <v>59894674.00362808</v>
+        <v>1065410.000000002</v>
       </c>
       <c r="E157">
-        <v>-4696733.399999985</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>-4696733.399999985</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="H157">
-        <v>-4370984.299999987</v>
+        <v>430180.0000000015</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157">
-        <v>-4370984.299999987</v>
+        <v>430180.0000000015</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -5440,31 +5440,31 @@
         <v>44068</v>
       </c>
       <c r="B158">
-        <v>60894674.00362808</v>
+        <v>2065410.000000002</v>
       </c>
       <c r="C158">
         <v>1000000</v>
       </c>
       <c r="D158">
-        <v>59894674.00362808</v>
+        <v>1065410.000000002</v>
       </c>
       <c r="E158">
-        <v>-4696733.399999985</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>-4696733.399999985</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="H158">
-        <v>-4160818.099999976</v>
+        <v>447280.0000000018</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>-4160818.099999976</v>
+        <v>447280.0000000018</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -5472,31 +5472,31 @@
         <v>44069</v>
       </c>
       <c r="B159">
-        <v>60894674.00362808</v>
+        <v>2065410.000000002</v>
       </c>
       <c r="C159">
         <v>1000000</v>
       </c>
       <c r="D159">
-        <v>59894674.00362808</v>
+        <v>1065410.000000002</v>
       </c>
       <c r="E159">
-        <v>-4696733.399999985</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>-4696733.399999985</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="H159">
-        <v>-5055517.99999998</v>
+        <v>435580.0000000017</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
-        <v>-5055517.99999998</v>
+        <v>435580.0000000017</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -5504,31 +5504,31 @@
         <v>44070</v>
       </c>
       <c r="B160">
-        <v>60894674.00362808</v>
+        <v>2065410.000000002</v>
       </c>
       <c r="C160">
         <v>1000000</v>
       </c>
       <c r="D160">
-        <v>59894674.00362808</v>
+        <v>1065410.000000002</v>
       </c>
       <c r="E160">
-        <v>-4696733.399999985</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>-4696733.399999985</v>
+        <v>440080.0000000017</v>
       </c>
       <c r="H160">
-        <v>-3860314.239999983</v>
+        <v>468160.0000000017</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160">
-        <v>-3860314.239999983</v>
+        <v>468160.0000000017</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -5536,31 +5536,31 @@
         <v>44071</v>
       </c>
       <c r="B161">
-        <v>76917278.89362809</v>
+        <v>2475900.000000001</v>
       </c>
       <c r="C161">
         <v>1000000</v>
       </c>
       <c r="D161">
-        <v>75917278.89362809</v>
+        <v>1475900.000000001</v>
       </c>
       <c r="E161">
-        <v>-4096502.259999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>-4096502.259999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="H161">
-        <v>-3475934.459999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161">
-        <v>-3475934.459999999</v>
+        <v>475900.0000000013</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -5568,31 +5568,31 @@
         <v>44074</v>
       </c>
       <c r="B162">
-        <v>65322539.91362809</v>
+        <v>2096208.000000001</v>
       </c>
       <c r="C162">
         <v>1000000</v>
       </c>
       <c r="D162">
-        <v>64322539.91362809</v>
+        <v>1096208.000000001</v>
       </c>
       <c r="E162">
-        <v>-4096502.259999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>-4096502.259999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="H162">
-        <v>-3293957.559999996</v>
+        <v>485440.0000000013</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162">
-        <v>-3293957.559999996</v>
+        <v>485440.0000000013</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -5600,31 +5600,31 @@
         <v>44075</v>
       </c>
       <c r="B163">
-        <v>65322539.91362809</v>
+        <v>2096208.000000001</v>
       </c>
       <c r="C163">
         <v>1000000</v>
       </c>
       <c r="D163">
-        <v>64322539.91362809</v>
+        <v>1096208.000000001</v>
       </c>
       <c r="E163">
-        <v>-4096502.259999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>-4096502.259999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="H163">
-        <v>-2681867.459999996</v>
+        <v>504520.0000000014</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163">
-        <v>-2681867.459999996</v>
+        <v>504520.0000000014</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -5632,31 +5632,31 @@
         <v>44076</v>
       </c>
       <c r="B164">
-        <v>65322539.91362809</v>
+        <v>2096208.000000001</v>
       </c>
       <c r="C164">
         <v>1000000</v>
       </c>
       <c r="D164">
-        <v>64322539.91362809</v>
+        <v>1096208.000000001</v>
       </c>
       <c r="E164">
-        <v>-4096502.259999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>-4096502.259999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="H164">
-        <v>-2710602.159999994</v>
+        <v>501100.0000000015</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164">
-        <v>-2710602.159999994</v>
+        <v>501100.0000000015</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -5664,31 +5664,31 @@
         <v>44077</v>
       </c>
       <c r="B165">
-        <v>65322539.91362809</v>
+        <v>2096208.000000001</v>
       </c>
       <c r="C165">
         <v>1000000</v>
       </c>
       <c r="D165">
-        <v>64322539.91362809</v>
+        <v>1096208.000000001</v>
       </c>
       <c r="E165">
-        <v>-4096502.259999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>-4096502.259999999</v>
+        <v>475900.0000000013</v>
       </c>
       <c r="H165">
-        <v>-4155782.160000001</v>
+        <v>446200.0000000013</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165">
-        <v>-4155782.160000001</v>
+        <v>446200.0000000013</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -5696,31 +5696,31 @@
         <v>44078</v>
       </c>
       <c r="B166">
-        <v>78457913.59362809</v>
+        <v>2422980.000000001</v>
       </c>
       <c r="C166">
         <v>1000000</v>
       </c>
       <c r="D166">
-        <v>77457913.59362809</v>
+        <v>1422980.000000001</v>
       </c>
       <c r="E166">
-        <v>-5670475.059999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>-5670475.059999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="H166">
-        <v>-4679805.659999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166">
-        <v>-4679805.659999998</v>
+        <v>422980.0000000014</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -5728,31 +5728,31 @@
         <v>44081</v>
       </c>
       <c r="B167">
-        <v>62931139.27362809</v>
+        <v>2049480.000000001</v>
       </c>
       <c r="C167">
         <v>1000000</v>
       </c>
       <c r="D167">
-        <v>61931139.27362809</v>
+        <v>1049480.000000001</v>
       </c>
       <c r="E167">
-        <v>-5670475.059999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>-5670475.059999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="H167">
-        <v>-3622980.66000001</v>
+        <v>430540.0000000012</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167">
-        <v>-3622980.66000001</v>
+        <v>430540.0000000012</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -5760,31 +5760,31 @@
         <v>44082</v>
       </c>
       <c r="B168">
-        <v>62931139.27362809</v>
+        <v>2049480.000000001</v>
       </c>
       <c r="C168">
         <v>1000000</v>
       </c>
       <c r="D168">
-        <v>61931139.27362809</v>
+        <v>1049480.000000001</v>
       </c>
       <c r="E168">
-        <v>-5670475.059999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>-5670475.059999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="H168">
-        <v>-2879704.559999991</v>
+        <v>431800.0000000015</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168">
-        <v>-2879704.559999991</v>
+        <v>431800.0000000015</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -5792,31 +5792,31 @@
         <v>44083</v>
       </c>
       <c r="B169">
-        <v>62931139.27362809</v>
+        <v>2049480.000000001</v>
       </c>
       <c r="C169">
         <v>1000000</v>
       </c>
       <c r="D169">
-        <v>61931139.27362809</v>
+        <v>1049480.000000001</v>
       </c>
       <c r="E169">
-        <v>-5670475.059999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169">
-        <v>-5670475.059999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="H169">
-        <v>-545507.7599999987</v>
+        <v>426940.0000000013</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169">
-        <v>-545507.7599999987</v>
+        <v>426940.0000000013</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -5824,31 +5824,31 @@
         <v>44084</v>
       </c>
       <c r="B170">
-        <v>62931139.27362809</v>
+        <v>2049480.000000001</v>
       </c>
       <c r="C170">
         <v>1000000</v>
       </c>
       <c r="D170">
-        <v>61931139.27362809</v>
+        <v>1049480.000000001</v>
       </c>
       <c r="E170">
-        <v>-5670475.059999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>-5670475.059999998</v>
+        <v>422980.0000000014</v>
       </c>
       <c r="H170">
-        <v>897959.6399999995</v>
+        <v>461860.0000000013</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170">
-        <v>897959.6399999995</v>
+        <v>461860.0000000013</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -5856,31 +5856,31 @@
         <v>44085</v>
       </c>
       <c r="B171">
-        <v>77505637.89362809</v>
+        <v>2483820.000000001</v>
       </c>
       <c r="C171">
         <v>1000000</v>
       </c>
       <c r="D171">
-        <v>76505637.89362809</v>
+        <v>1483820.000000001</v>
       </c>
       <c r="E171">
-        <v>-2128799.060000001</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>-2128799.060000001</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="H171">
-        <v>1944101.139999999</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="I171">
         <v>0</v>
       </c>
       <c r="J171">
-        <v>1944101.139999999</v>
+        <v>483820.0000000013</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -5888,31 +5888,31 @@
         <v>44088</v>
       </c>
       <c r="B172">
-        <v>74890756.2936281</v>
+        <v>2107206.000000001</v>
       </c>
       <c r="C172">
         <v>1000000</v>
       </c>
       <c r="D172">
-        <v>73890756.2936281</v>
+        <v>1107206.000000001</v>
       </c>
       <c r="E172">
-        <v>-2128799.060000001</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>-2128799.060000001</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="H172">
-        <v>1751635.540000001</v>
+        <v>487960.0000000016</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172">
-        <v>1751635.540000001</v>
+        <v>487960.0000000016</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -5920,31 +5920,31 @@
         <v>44089</v>
       </c>
       <c r="B173">
-        <v>74890756.2936281</v>
+        <v>2107206.000000001</v>
       </c>
       <c r="C173">
         <v>1000000</v>
       </c>
       <c r="D173">
-        <v>73890756.2936281</v>
+        <v>1107206.000000001</v>
       </c>
       <c r="E173">
-        <v>-2128799.060000001</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
       <c r="G173">
-        <v>-2128799.060000001</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="H173">
-        <v>1778833.139999998</v>
+        <v>497320.0000000013</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173">
-        <v>1778833.139999998</v>
+        <v>497320.0000000013</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -5952,31 +5952,31 @@
         <v>44090</v>
       </c>
       <c r="B174">
-        <v>74890756.2936281</v>
+        <v>2107206.000000001</v>
       </c>
       <c r="C174">
         <v>1000000</v>
       </c>
       <c r="D174">
-        <v>73890756.2936281</v>
+        <v>1107206.000000001</v>
       </c>
       <c r="E174">
-        <v>-2128799.060000001</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>-2128799.060000001</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="H174">
-        <v>864857.5400000019</v>
+        <v>479680.0000000015</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174">
-        <v>864857.5400000019</v>
+        <v>479680.0000000015</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -5984,31 +5984,31 @@
         <v>44091</v>
       </c>
       <c r="B175">
-        <v>74890756.2936281</v>
+        <v>2107206.000000001</v>
       </c>
       <c r="C175">
         <v>1000000</v>
       </c>
       <c r="D175">
-        <v>73890756.2936281</v>
+        <v>1107206.000000001</v>
       </c>
       <c r="E175">
-        <v>-2128799.060000001</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>-2128799.060000001</v>
+        <v>483820.0000000013</v>
       </c>
       <c r="H175">
-        <v>-142897.0600000006</v>
+        <v>472660.0000000017</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175">
-        <v>-142897.0600000006</v>
+        <v>472660.0000000017</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6016,31 +6016,31 @@
         <v>44092</v>
       </c>
       <c r="B176">
-        <v>89400131.15980977</v>
+        <v>2456640.000000001</v>
       </c>
       <c r="C176">
         <v>1000000</v>
       </c>
       <c r="D176">
-        <v>88400131.15980977</v>
+        <v>1456640.000000002</v>
       </c>
       <c r="E176">
-        <v>-3405054.460000001</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>-3405054.460000001</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="H176">
-        <v>-443117.0600000004</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176">
-        <v>-443117.0600000004</v>
+        <v>456640.0000000015</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6048,31 +6048,31 @@
         <v>44095</v>
       </c>
       <c r="B177">
-        <v>79638118.25980978</v>
+        <v>2081700.000000001</v>
       </c>
       <c r="C177">
         <v>1000000</v>
       </c>
       <c r="D177">
-        <v>78638118.25980978</v>
+        <v>1081700.000000002</v>
       </c>
       <c r="E177">
-        <v>-3405054.460000001</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>-3405054.460000001</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="H177">
-        <v>-983888.860000008</v>
+        <v>463840.000000001</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177">
-        <v>-983888.860000008</v>
+        <v>463840.000000001</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6080,31 +6080,31 @@
         <v>44096</v>
       </c>
       <c r="B178">
-        <v>79638118.25980978</v>
+        <v>2081700.000000001</v>
       </c>
       <c r="C178">
         <v>1000000</v>
       </c>
       <c r="D178">
-        <v>78638118.25980978</v>
+        <v>1081700.000000002</v>
       </c>
       <c r="E178">
-        <v>-3405054.460000001</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
       <c r="G178">
-        <v>-3405054.460000001</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="H178">
-        <v>-803707.9800000024</v>
+        <v>376900.0000000013</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178">
-        <v>-803707.9800000024</v>
+        <v>376900.0000000013</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6112,31 +6112,31 @@
         <v>44097</v>
       </c>
       <c r="B179">
-        <v>79638118.25980978</v>
+        <v>2081700.000000001</v>
       </c>
       <c r="C179">
         <v>1000000</v>
       </c>
       <c r="D179">
-        <v>78638118.25980978</v>
+        <v>1081700.000000002</v>
       </c>
       <c r="E179">
-        <v>-3405054.460000001</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
       <c r="G179">
-        <v>-3405054.460000001</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="H179">
-        <v>-455832.5800000078</v>
+        <v>359800.000000001</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
-        <v>-455832.5800000078</v>
+        <v>359800.000000001</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6144,31 +6144,31 @@
         <v>44098</v>
       </c>
       <c r="B180">
-        <v>79638118.25980978</v>
+        <v>2081700.000000001</v>
       </c>
       <c r="C180">
         <v>1000000</v>
       </c>
       <c r="D180">
-        <v>78638118.25980978</v>
+        <v>1081700.000000002</v>
       </c>
       <c r="E180">
-        <v>-3405054.460000001</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>-3405054.460000001</v>
+        <v>456640.0000000015</v>
       </c>
       <c r="H180">
-        <v>-1398558.900000005</v>
+        <v>303460.0000000012</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180">
-        <v>-1398558.900000005</v>
+        <v>303460.0000000012</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6176,31 +6176,31 @@
         <v>44099</v>
       </c>
       <c r="B181">
-        <v>87678927.51980978</v>
+        <v>2284560.000000001</v>
       </c>
       <c r="C181">
         <v>1000000</v>
       </c>
       <c r="D181">
-        <v>86678927.51980978</v>
+        <v>1284560.000000002</v>
       </c>
       <c r="E181">
-        <v>-5152305.299999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>-5152305.299999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="H181">
-        <v>-1424606.099999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181">
-        <v>-1424606.099999999</v>
+        <v>284560.0000000015</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6208,31 +6208,31 @@
         <v>44102</v>
       </c>
       <c r="B182">
-        <v>77547908.15380977</v>
+        <v>1885340.000000001</v>
       </c>
       <c r="C182">
         <v>1000000</v>
       </c>
       <c r="D182">
-        <v>76547908.15380977</v>
+        <v>885340.0000000016</v>
       </c>
       <c r="E182">
-        <v>-5152305.299999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>-5152305.299999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="H182">
-        <v>-1237854.020000008</v>
+        <v>290160.0000000009</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182">
-        <v>-1237854.020000008</v>
+        <v>290160.0000000009</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6240,31 +6240,31 @@
         <v>44103</v>
       </c>
       <c r="B183">
-        <v>77547908.15380977</v>
+        <v>1885340.000000001</v>
       </c>
       <c r="C183">
         <v>1000000</v>
       </c>
       <c r="D183">
-        <v>76547908.15380977</v>
+        <v>885340.0000000016</v>
       </c>
       <c r="E183">
-        <v>-5152305.299999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>-5152305.299999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="H183">
-        <v>-518866.0800000071</v>
+        <v>331960.000000001</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183">
-        <v>-518866.0800000071</v>
+        <v>331960.000000001</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6272,31 +6272,31 @@
         <v>44104</v>
       </c>
       <c r="B184">
-        <v>77547908.15380977</v>
+        <v>1885340.000000001</v>
       </c>
       <c r="C184">
         <v>1000000</v>
       </c>
       <c r="D184">
-        <v>76547908.15380977</v>
+        <v>885340.0000000016</v>
       </c>
       <c r="E184">
-        <v>-5152305.299999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>-5152305.299999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="H184">
-        <v>666992.4399999996</v>
+        <v>358360.0000000014</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184">
-        <v>666992.4399999996</v>
+        <v>358360.0000000014</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -6304,31 +6304,31 @@
         <v>44113</v>
       </c>
       <c r="B185">
-        <v>77547908.15380977</v>
+        <v>1885340.000000001</v>
       </c>
       <c r="C185">
         <v>1000000</v>
       </c>
       <c r="D185">
-        <v>76547908.15380977</v>
+        <v>885340.0000000016</v>
       </c>
       <c r="E185">
-        <v>-5152305.299999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>-5152305.299999999</v>
+        <v>284560.0000000015</v>
       </c>
       <c r="H185">
-        <v>-172181.0600000069</v>
+        <v>347360.0000000012</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185">
-        <v>-172181.0600000069</v>
+        <v>347360.0000000012</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6336,31 +6336,31 @@
         <v>44116</v>
       </c>
       <c r="B186">
-        <v>87373103.35580976</v>
+        <v>2366160.000000001</v>
       </c>
       <c r="C186">
         <v>1000000</v>
       </c>
       <c r="D186">
-        <v>86373103.35580976</v>
+        <v>1366160.000000001</v>
       </c>
       <c r="E186">
-        <v>-3616432.140000005</v>
+        <v>366160.0000000012</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>-3616432.140000005</v>
+        <v>366160.0000000012</v>
       </c>
       <c r="H186">
-        <v>296909.6599999933</v>
+        <v>366160.0000000011</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186">
-        <v>296909.6599999933</v>
+        <v>366160.0000000011</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -6368,31 +6368,31 @@
         <v>44117</v>
       </c>
       <c r="B187">
-        <v>87373103.35580976</v>
+        <v>1996386.000000001</v>
       </c>
       <c r="C187">
         <v>1000000</v>
       </c>
       <c r="D187">
-        <v>86373103.35580976</v>
+        <v>996386.0000000014</v>
       </c>
       <c r="E187">
-        <v>-3616432.140000005</v>
+        <v>366160.0000000012</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>-3616432.140000005</v>
+        <v>366160.0000000012</v>
       </c>
       <c r="H187">
-        <v>439599.2599999928</v>
+        <v>355900.0000000012</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>439599.2599999928</v>
+        <v>355900.0000000012</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -6400,31 +6400,31 @@
         <v>44118</v>
       </c>
       <c r="B188">
-        <v>87373103.35580976</v>
+        <v>1996386.000000001</v>
       </c>
       <c r="C188">
         <v>1000000</v>
       </c>
       <c r="D188">
-        <v>86373103.35580976</v>
+        <v>996386.0000000014</v>
       </c>
       <c r="E188">
-        <v>-3616432.140000005</v>
+        <v>366160.0000000012</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>-3616432.140000005</v>
+        <v>366160.0000000012</v>
       </c>
       <c r="H188">
-        <v>446087.1799999942</v>
+        <v>296140.0000000008</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188">
-        <v>446087.1799999942</v>
+        <v>296140.0000000008</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -6432,31 +6432,31 @@
         <v>44119</v>
       </c>
       <c r="B189">
-        <v>87373103.35580976</v>
+        <v>1996386.000000001</v>
       </c>
       <c r="C189">
         <v>1000000</v>
       </c>
       <c r="D189">
-        <v>86373103.35580976</v>
+        <v>996386.0000000014</v>
       </c>
       <c r="E189">
-        <v>-3616432.140000005</v>
+        <v>366160.0000000012</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>-3616432.140000005</v>
+        <v>366160.0000000012</v>
       </c>
       <c r="H189">
-        <v>345079.1399999925</v>
+        <v>304960.000000001</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189">
-        <v>345079.1399999925</v>
+        <v>304960.000000001</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -6464,31 +6464,31 @@
         <v>44120</v>
       </c>
       <c r="B190">
-        <v>87373103.35580976</v>
+        <v>1996386.000000001</v>
       </c>
       <c r="C190">
         <v>1000000</v>
       </c>
       <c r="D190">
-        <v>86373103.35580976</v>
+        <v>996386.0000000014</v>
       </c>
       <c r="E190">
-        <v>-3616432.140000005</v>
+        <v>366160.0000000012</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>-3616432.140000005</v>
+        <v>366160.0000000012</v>
       </c>
       <c r="H190">
-        <v>473427.0999999935</v>
+        <v>306580.000000001</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190">
-        <v>473427.0999999935</v>
+        <v>306580.000000001</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -6496,31 +6496,31 @@
         <v>44123</v>
       </c>
       <c r="B191">
-        <v>97296444.76096083</v>
+        <v>2306400.000000001</v>
       </c>
       <c r="C191">
         <v>1000000</v>
       </c>
       <c r="D191">
-        <v>96296444.76096083</v>
+        <v>1306400.000000001</v>
       </c>
       <c r="E191">
-        <v>-3455059.940000006</v>
+        <v>306400.0000000013</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>-3455059.940000006</v>
+        <v>306400.0000000013</v>
       </c>
       <c r="H191">
-        <v>391735.5599999942</v>
+        <v>306400.0000000012</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>391735.5599999942</v>
+        <v>306400.0000000012</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -6528,31 +6528,31 @@
         <v>44124</v>
       </c>
       <c r="B192">
-        <v>88967936.73096083</v>
+        <v>1941810.000000001</v>
       </c>
       <c r="C192">
         <v>1000000</v>
       </c>
       <c r="D192">
-        <v>87967936.73096083</v>
+        <v>941810.0000000014</v>
       </c>
       <c r="E192">
-        <v>-3455059.940000006</v>
+        <v>306400.0000000013</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>-3455059.940000006</v>
+        <v>306400.0000000013</v>
       </c>
       <c r="H192">
-        <v>186793.6199999894</v>
+        <v>292540.000000001</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>186793.6199999894</v>
+        <v>292540.000000001</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -6560,31 +6560,31 @@
         <v>44125</v>
       </c>
       <c r="B193">
-        <v>88967936.73096083</v>
+        <v>1941810.000000001</v>
       </c>
       <c r="C193">
         <v>1000000</v>
       </c>
       <c r="D193">
-        <v>87967936.73096083</v>
+        <v>941810.0000000014</v>
       </c>
       <c r="E193">
-        <v>-3455059.940000006</v>
+        <v>306400.0000000013</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>-3455059.940000006</v>
+        <v>306400.0000000013</v>
       </c>
       <c r="H193">
-        <v>479099.6199999917</v>
+        <v>302440.0000000013</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>479099.6199999917</v>
+        <v>302440.0000000013</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -6592,31 +6592,31 @@
         <v>44126</v>
       </c>
       <c r="B194">
-        <v>88967936.73096083</v>
+        <v>1941810.000000001</v>
       </c>
       <c r="C194">
         <v>1000000</v>
       </c>
       <c r="D194">
-        <v>87967936.73096083</v>
+        <v>941810.0000000014</v>
       </c>
       <c r="E194">
-        <v>-3455059.940000006</v>
+        <v>306400.0000000013</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>-3455059.940000006</v>
+        <v>306400.0000000013</v>
       </c>
       <c r="H194">
-        <v>1008255.659999991</v>
+        <v>310900.0000000012</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194">
-        <v>1008255.659999991</v>
+        <v>310900.0000000012</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -6624,31 +6624,31 @@
         <v>44127</v>
       </c>
       <c r="B195">
-        <v>88967936.73096083</v>
+        <v>1941810.000000001</v>
       </c>
       <c r="C195">
         <v>1000000</v>
       </c>
       <c r="D195">
-        <v>87967936.73096083</v>
+        <v>941810.0000000014</v>
       </c>
       <c r="E195">
-        <v>-3455059.940000006</v>
+        <v>306400.0000000013</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>-3455059.940000006</v>
+        <v>306400.0000000013</v>
       </c>
       <c r="H195">
-        <v>651232.4599999908</v>
+        <v>285700.0000000011</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195">
-        <v>651232.4599999908</v>
+        <v>285700.0000000011</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -6656,31 +6656,31 @@
         <v>44130</v>
       </c>
       <c r="B196">
-        <v>97441228.93450184</v>
+        <v>2292720</v>
       </c>
       <c r="C196">
         <v>1000000</v>
       </c>
       <c r="D196">
-        <v>96441228.93450184</v>
+        <v>1292720.000000001</v>
       </c>
       <c r="E196">
-        <v>-3224609.260000012</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>-3224609.260000012</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="H196">
-        <v>857898.439999987</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196">
-        <v>857898.439999987</v>
+        <v>292720.0000000009</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -6688,31 +6688,31 @@
         <v>44131</v>
       </c>
       <c r="B197">
-        <v>88552578.63850185</v>
+        <v>1930146</v>
       </c>
       <c r="C197">
         <v>1000000</v>
       </c>
       <c r="D197">
-        <v>87552578.63850185</v>
+        <v>930146.0000000009</v>
       </c>
       <c r="E197">
-        <v>-3224609.260000012</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>-3224609.260000012</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="H197">
-        <v>1255590.979999987</v>
+        <v>307480.0000000008</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197">
-        <v>1255590.979999987</v>
+        <v>307480.0000000008</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -6720,31 +6720,31 @@
         <v>44132</v>
       </c>
       <c r="B198">
-        <v>88552578.63850185</v>
+        <v>1930146</v>
       </c>
       <c r="C198">
         <v>1000000</v>
       </c>
       <c r="D198">
-        <v>87552578.63850185</v>
+        <v>930146.0000000009</v>
       </c>
       <c r="E198">
-        <v>-3224609.260000012</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>-3224609.260000012</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="H198">
-        <v>1471958.319999986</v>
+        <v>315940.0000000008</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198">
-        <v>1471958.319999986</v>
+        <v>315940.0000000008</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -6752,31 +6752,31 @@
         <v>44133</v>
       </c>
       <c r="B199">
-        <v>88552578.63850185</v>
+        <v>1930146</v>
       </c>
       <c r="C199">
         <v>1000000</v>
       </c>
       <c r="D199">
-        <v>87552578.63850185</v>
+        <v>930146.0000000009</v>
       </c>
       <c r="E199">
-        <v>-3224609.260000012</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>-3224609.260000012</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="H199">
-        <v>2396988.579999983</v>
+        <v>264280.0000000006</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199">
-        <v>2396988.579999983</v>
+        <v>264280.0000000006</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -6784,31 +6784,31 @@
         <v>44134</v>
       </c>
       <c r="B200">
-        <v>88552578.63850185</v>
+        <v>1930146</v>
       </c>
       <c r="C200">
         <v>1000000</v>
       </c>
       <c r="D200">
-        <v>87552578.63850185</v>
+        <v>930146.0000000009</v>
       </c>
       <c r="E200">
-        <v>-3224609.260000012</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>-3224609.260000012</v>
+        <v>292720.0000000009</v>
       </c>
       <c r="H200">
-        <v>3950065.979999982</v>
+        <v>243580.0000000005</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200">
-        <v>3950065.979999982</v>
+        <v>243580.0000000005</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -6816,31 +6816,31 @@
         <v>44137</v>
       </c>
       <c r="B201">
-        <v>99681643.62050185</v>
+        <v>2265900</v>
       </c>
       <c r="C201">
         <v>1000000</v>
       </c>
       <c r="D201">
-        <v>98681643.62050185</v>
+        <v>1265900.000000001</v>
       </c>
       <c r="E201">
-        <v>-570054.1200000127</v>
+        <v>265900.0000000008</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>-570054.1200000127</v>
+        <v>265900.0000000008</v>
       </c>
       <c r="H201">
-        <v>4347884.699999986</v>
+        <v>265900.0000000007</v>
       </c>
       <c r="I201">
         <v>0</v>
       </c>
       <c r="J201">
-        <v>4347884.699999986</v>
+        <v>265900.0000000007</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -6848,31 +6848,31 @@
         <v>44138</v>
       </c>
       <c r="B202">
-        <v>96246909.08050184</v>
+        <v>1904820</v>
       </c>
       <c r="C202">
         <v>1000000</v>
       </c>
       <c r="D202">
-        <v>95246909.08050184</v>
+        <v>904820.0000000007</v>
       </c>
       <c r="E202">
-        <v>-570054.1200000127</v>
+        <v>265900.0000000008</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>-570054.1200000127</v>
+        <v>265900.0000000008</v>
       </c>
       <c r="H202">
-        <v>3442904.959999986</v>
+        <v>271120.0000000005</v>
       </c>
       <c r="I202">
         <v>0</v>
       </c>
       <c r="J202">
-        <v>3442904.959999986</v>
+        <v>271120.0000000005</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -6880,31 +6880,31 @@
         <v>44139</v>
       </c>
       <c r="B203">
-        <v>96246909.08050184</v>
+        <v>1904820</v>
       </c>
       <c r="C203">
         <v>1000000</v>
       </c>
       <c r="D203">
-        <v>95246909.08050184</v>
+        <v>904820.0000000007</v>
       </c>
       <c r="E203">
-        <v>-570054.1200000127</v>
+        <v>265900.0000000008</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>-570054.1200000127</v>
+        <v>265900.0000000008</v>
       </c>
       <c r="H203">
-        <v>2614919.299999985</v>
+        <v>295060.0000000008</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203">
-        <v>2614919.299999985</v>
+        <v>295060.0000000008</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -6912,31 +6912,31 @@
         <v>44140</v>
       </c>
       <c r="B204">
-        <v>96246909.08050184</v>
+        <v>1904820</v>
       </c>
       <c r="C204">
         <v>1000000</v>
       </c>
       <c r="D204">
-        <v>95246909.08050184</v>
+        <v>904820.0000000007</v>
       </c>
       <c r="E204">
-        <v>-570054.1200000127</v>
+        <v>265900.0000000008</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
       <c r="G204">
-        <v>-570054.1200000127</v>
+        <v>265900.0000000008</v>
       </c>
       <c r="H204">
-        <v>2399205.459999984</v>
+        <v>279220.0000000009</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
       <c r="J204">
-        <v>2399205.459999984</v>
+        <v>279220.0000000009</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -6944,31 +6944,31 @@
         <v>44141</v>
       </c>
       <c r="B205">
-        <v>96246909.08050184</v>
+        <v>1904820</v>
       </c>
       <c r="C205">
         <v>1000000</v>
       </c>
       <c r="D205">
-        <v>95246909.08050184</v>
+        <v>904820.0000000007</v>
       </c>
       <c r="E205">
-        <v>-570054.1200000127</v>
+        <v>265900.0000000008</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>-570054.1200000127</v>
+        <v>265900.0000000008</v>
       </c>
       <c r="H205">
-        <v>2677837.599999986</v>
+        <v>326560.0000000008</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205">
-        <v>2677837.599999986</v>
+        <v>326560.0000000008</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -6976,31 +6976,31 @@
         <v>44144</v>
       </c>
       <c r="B206">
-        <v>102912963.4665018</v>
+        <v>2336100</v>
       </c>
       <c r="C206">
         <v>1000000</v>
       </c>
       <c r="D206">
-        <v>101912963.4665018</v>
+        <v>1336100.000000001</v>
       </c>
       <c r="E206">
-        <v>-1300572.960000015</v>
+        <v>336100.0000000009</v>
       </c>
       <c r="F206">
         <v>0</v>
       </c>
       <c r="G206">
-        <v>-1300572.960000015</v>
+        <v>336100.0000000009</v>
       </c>
       <c r="H206">
-        <v>3271876.039999984</v>
+        <v>336100.0000000008</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206">
-        <v>3271876.039999984</v>
+        <v>336100.0000000008</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7008,31 +7008,31 @@
         <v>44145</v>
       </c>
       <c r="B207">
-        <v>92600845.90650183</v>
+        <v>1936500</v>
       </c>
       <c r="C207">
         <v>1000000</v>
       </c>
       <c r="D207">
-        <v>91600845.90650183</v>
+        <v>936500.0000000009</v>
       </c>
       <c r="E207">
-        <v>-1300572.960000015</v>
+        <v>336100.0000000009</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207">
-        <v>-1300572.960000015</v>
+        <v>336100.0000000009</v>
       </c>
       <c r="H207">
-        <v>1487313.559999973</v>
+        <v>285300.0000000004</v>
       </c>
       <c r="I207">
         <v>0</v>
       </c>
       <c r="J207">
-        <v>1487313.559999973</v>
+        <v>285300.0000000004</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7040,31 +7040,31 @@
         <v>44146</v>
       </c>
       <c r="B208">
-        <v>92600845.90650183</v>
+        <v>1936500</v>
       </c>
       <c r="C208">
         <v>1000000</v>
       </c>
       <c r="D208">
-        <v>91600845.90650183</v>
+        <v>936500.0000000009</v>
       </c>
       <c r="E208">
-        <v>-1300572.960000015</v>
+        <v>336100.0000000009</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
       <c r="G208">
-        <v>-1300572.960000015</v>
+        <v>336100.0000000009</v>
       </c>
       <c r="H208">
-        <v>1561226.659999985</v>
+        <v>292300.0000000009</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208">
-        <v>1561226.659999985</v>
+        <v>292300.0000000009</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -7072,31 +7072,31 @@
         <v>44147</v>
       </c>
       <c r="B209">
-        <v>92600845.90650183</v>
+        <v>1936500</v>
       </c>
       <c r="C209">
         <v>1000000</v>
       </c>
       <c r="D209">
-        <v>91600845.90650183</v>
+        <v>936500.0000000009</v>
       </c>
       <c r="E209">
-        <v>-1300572.960000015</v>
+        <v>336100.0000000009</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
       <c r="G209">
-        <v>-1300572.960000015</v>
+        <v>336100.0000000009</v>
       </c>
       <c r="H209">
-        <v>1157848.519999983</v>
+        <v>279900.0000000008</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
       <c r="J209">
-        <v>1157848.519999983</v>
+        <v>279900.0000000008</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -7104,31 +7104,31 @@
         <v>44148</v>
       </c>
       <c r="B210">
-        <v>92600845.90650183</v>
+        <v>1936500</v>
       </c>
       <c r="C210">
         <v>1000000</v>
       </c>
       <c r="D210">
-        <v>91600845.90650183</v>
+        <v>936500.0000000009</v>
       </c>
       <c r="E210">
-        <v>-1300572.960000015</v>
+        <v>336100.0000000009</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210">
-        <v>-1300572.960000015</v>
+        <v>336100.0000000009</v>
       </c>
       <c r="H210">
-        <v>1801101.779999981</v>
+        <v>302500.0000000006</v>
       </c>
       <c r="I210">
         <v>0</v>
       </c>
       <c r="J210">
-        <v>1801101.779999981</v>
+        <v>302500.0000000006</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -7136,31 +7136,31 @@
         <v>44151</v>
       </c>
       <c r="B211">
-        <v>97624730.84650183</v>
+        <v>2315100</v>
       </c>
       <c r="C211">
         <v>1000000</v>
       </c>
       <c r="D211">
-        <v>96624730.84650183</v>
+        <v>1315100.000000001</v>
       </c>
       <c r="E211">
-        <v>-2338609.960000018</v>
+        <v>315100.0000000006</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211">
-        <v>-2338609.960000018</v>
+        <v>315100.0000000006</v>
       </c>
       <c r="H211">
-        <v>2366683.839999977</v>
+        <v>315100.0000000005</v>
       </c>
       <c r="I211">
         <v>0</v>
       </c>
       <c r="J211">
-        <v>2366683.839999977</v>
+        <v>315100.0000000005</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -7168,31 +7168,31 @@
         <v>44152</v>
       </c>
       <c r="B212">
-        <v>94342138.28650182</v>
+        <v>1920400</v>
       </c>
       <c r="C212">
         <v>1000000</v>
       </c>
       <c r="D212">
-        <v>93342138.28650182</v>
+        <v>920400.0000000007</v>
       </c>
       <c r="E212">
-        <v>-2338609.960000018</v>
+        <v>315100.0000000006</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212">
-        <v>-2338609.960000018</v>
+        <v>315100.0000000006</v>
       </c>
       <c r="H212">
-        <v>2478571.799999979</v>
+        <v>330700.0000000005</v>
       </c>
       <c r="I212">
         <v>0</v>
       </c>
       <c r="J212">
-        <v>2478571.799999979</v>
+        <v>330700.0000000005</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -7200,31 +7200,31 @@
         <v>44153</v>
       </c>
       <c r="B213">
-        <v>94342138.28650182</v>
+        <v>1920400</v>
       </c>
       <c r="C213">
         <v>1000000</v>
       </c>
       <c r="D213">
-        <v>93342138.28650182</v>
+        <v>920400.0000000007</v>
       </c>
       <c r="E213">
-        <v>-2338609.960000018</v>
+        <v>315100.0000000006</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213">
-        <v>-2338609.960000018</v>
+        <v>315100.0000000006</v>
       </c>
       <c r="H213">
-        <v>2579809.999999975</v>
+        <v>318700.0000000006</v>
       </c>
       <c r="I213">
         <v>0</v>
       </c>
       <c r="J213">
-        <v>2579809.999999975</v>
+        <v>318700.0000000006</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -7232,31 +7232,31 @@
         <v>44154</v>
       </c>
       <c r="B214">
-        <v>94342138.28650182</v>
+        <v>1920400</v>
       </c>
       <c r="C214">
         <v>1000000</v>
       </c>
       <c r="D214">
-        <v>93342138.28650182</v>
+        <v>920400.0000000007</v>
       </c>
       <c r="E214">
-        <v>-2338609.960000018</v>
+        <v>315100.0000000006</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214">
-        <v>-2338609.960000018</v>
+        <v>315100.0000000006</v>
       </c>
       <c r="H214">
-        <v>2128581.919999974</v>
+        <v>298900.0000000005</v>
       </c>
       <c r="I214">
         <v>0</v>
       </c>
       <c r="J214">
-        <v>2128581.919999974</v>
+        <v>298900.0000000005</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -7264,31 +7264,31 @@
         <v>44155</v>
       </c>
       <c r="B215">
-        <v>94342138.28650182</v>
+        <v>1920400</v>
       </c>
       <c r="C215">
         <v>1000000</v>
       </c>
       <c r="D215">
-        <v>93342138.28650182</v>
+        <v>920400.0000000007</v>
       </c>
       <c r="E215">
-        <v>-2338609.960000018</v>
+        <v>315100.0000000006</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215">
-        <v>-2338609.960000018</v>
+        <v>315100.0000000006</v>
       </c>
       <c r="H215">
-        <v>1824705.679999976</v>
+        <v>285500.0000000007</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215">
-        <v>1824705.679999976</v>
+        <v>285500.0000000007</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -7296,31 +7296,31 @@
         <v>44158</v>
       </c>
       <c r="B216">
-        <v>102691123.8403727</v>
+        <v>2289900</v>
       </c>
       <c r="C216">
         <v>1000000</v>
       </c>
       <c r="D216">
-        <v>101691123.8403727</v>
+        <v>1289900.000000001</v>
       </c>
       <c r="E216">
-        <v>-2392535.900000022</v>
+        <v>289900.0000000008</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>-2392535.900000022</v>
+        <v>289900.0000000008</v>
       </c>
       <c r="H216">
-        <v>2029986.379999979</v>
+        <v>289900.0000000007</v>
       </c>
       <c r="I216">
         <v>0</v>
       </c>
       <c r="J216">
-        <v>2029986.379999979</v>
+        <v>289900.0000000007</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -7328,31 +7328,31 @@
         <v>44159</v>
       </c>
       <c r="B217">
-        <v>97614835.99037267</v>
+        <v>1897820</v>
       </c>
       <c r="C217">
         <v>1000000</v>
       </c>
       <c r="D217">
-        <v>96614835.99037267</v>
+        <v>897820.0000000009</v>
       </c>
       <c r="E217">
-        <v>-2392535.900000022</v>
+        <v>289900.0000000008</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
       <c r="G217">
-        <v>-2392535.900000022</v>
+        <v>289900.0000000008</v>
       </c>
       <c r="H217">
-        <v>823158.2199999781</v>
+        <v>233900.000000001</v>
       </c>
       <c r="I217">
         <v>0</v>
       </c>
       <c r="J217">
-        <v>823158.2199999781</v>
+        <v>233900.000000001</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -7360,31 +7360,31 @@
         <v>44160</v>
       </c>
       <c r="B218">
-        <v>97614835.99037267</v>
+        <v>1897820</v>
       </c>
       <c r="C218">
         <v>1000000</v>
       </c>
       <c r="D218">
-        <v>96614835.99037267</v>
+        <v>897820.0000000009</v>
       </c>
       <c r="E218">
-        <v>-2392535.900000022</v>
+        <v>289900.0000000008</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
       <c r="G218">
-        <v>-2392535.900000022</v>
+        <v>289900.0000000008</v>
       </c>
       <c r="H218">
-        <v>-2842511.840000021</v>
+        <v>163500.0000000008</v>
       </c>
       <c r="I218">
         <v>0</v>
       </c>
       <c r="J218">
-        <v>-2842511.840000021</v>
+        <v>163500.0000000008</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -7392,31 +7392,31 @@
         <v>44161</v>
       </c>
       <c r="B219">
-        <v>97614835.99037267</v>
+        <v>1897820</v>
       </c>
       <c r="C219">
         <v>1000000</v>
       </c>
       <c r="D219">
-        <v>96614835.99037267</v>
+        <v>897820.0000000009</v>
       </c>
       <c r="E219">
-        <v>-2392535.900000022</v>
+        <v>289900.0000000008</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
       <c r="G219">
-        <v>-2392535.900000022</v>
+        <v>289900.0000000008</v>
       </c>
       <c r="H219">
-        <v>-3191750.240000023</v>
+        <v>167500.0000000006</v>
       </c>
       <c r="I219">
         <v>0</v>
       </c>
       <c r="J219">
-        <v>-3191750.240000023</v>
+        <v>167500.0000000006</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -7424,31 +7424,31 @@
         <v>44162</v>
       </c>
       <c r="B220">
-        <v>97614835.99037267</v>
+        <v>1897820</v>
       </c>
       <c r="C220">
         <v>1000000</v>
       </c>
       <c r="D220">
-        <v>96614835.99037267</v>
+        <v>897820.0000000009</v>
       </c>
       <c r="E220">
-        <v>-2392535.900000022</v>
+        <v>289900.0000000008</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>-2392535.900000022</v>
+        <v>289900.0000000008</v>
       </c>
       <c r="H220">
-        <v>-2778967.920000021</v>
+        <v>172300.0000000008</v>
       </c>
       <c r="I220">
         <v>0</v>
       </c>
       <c r="J220">
-        <v>-2778967.920000021</v>
+        <v>172300.0000000008</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -7456,31 +7456,31 @@
         <v>44165</v>
       </c>
       <c r="B221">
-        <v>102037697.2328282</v>
+        <v>2169500</v>
       </c>
       <c r="C221">
         <v>1000000</v>
       </c>
       <c r="D221">
-        <v>101037697.2328282</v>
+        <v>1169500.000000001</v>
       </c>
       <c r="E221">
-        <v>-6845861.660000024</v>
+        <v>169500.0000000012</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221">
-        <v>-6845861.660000024</v>
+        <v>169500.0000000012</v>
       </c>
       <c r="H221">
-        <v>-3384194.660000023</v>
+        <v>169500.000000001</v>
       </c>
       <c r="I221">
         <v>0</v>
       </c>
       <c r="J221">
-        <v>-3384194.660000023</v>
+        <v>169500.000000001</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -7488,31 +7488,31 @@
         <v>44166</v>
       </c>
       <c r="B222">
-        <v>97478420.76682818</v>
+        <v>1799720</v>
       </c>
       <c r="C222">
         <v>1000000</v>
       </c>
       <c r="D222">
-        <v>96478420.76682818</v>
+        <v>799720.0000000014</v>
       </c>
       <c r="E222">
-        <v>-6845861.660000024</v>
+        <v>169500.0000000012</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222">
-        <v>-6845861.660000024</v>
+        <v>169500.0000000012</v>
       </c>
       <c r="H222">
-        <v>-3145829.300000024</v>
+        <v>194500.000000001</v>
       </c>
       <c r="I222">
         <v>0</v>
       </c>
       <c r="J222">
-        <v>-3145829.300000024</v>
+        <v>194500.000000001</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -7520,31 +7520,31 @@
         <v>44167</v>
       </c>
       <c r="B223">
-        <v>97478420.76682818</v>
+        <v>1799720</v>
       </c>
       <c r="C223">
         <v>1000000</v>
       </c>
       <c r="D223">
-        <v>96478420.76682818</v>
+        <v>799720.0000000014</v>
       </c>
       <c r="E223">
-        <v>-6845861.660000024</v>
+        <v>169500.0000000012</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223">
-        <v>-6845861.660000024</v>
+        <v>169500.0000000012</v>
       </c>
       <c r="H223">
-        <v>-2068660.76000002</v>
+        <v>260900.0000000015</v>
       </c>
       <c r="I223">
         <v>0</v>
       </c>
       <c r="J223">
-        <v>-2068660.76000002</v>
+        <v>260900.0000000015</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -7552,31 +7552,31 @@
         <v>44168</v>
       </c>
       <c r="B224">
-        <v>97478420.76682818</v>
+        <v>1799720</v>
       </c>
       <c r="C224">
         <v>1000000</v>
       </c>
       <c r="D224">
-        <v>96478420.76682818</v>
+        <v>799720.0000000014</v>
       </c>
       <c r="E224">
-        <v>-6845861.660000024</v>
+        <v>169500.0000000012</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224">
-        <v>-6845861.660000024</v>
+        <v>169500.0000000012</v>
       </c>
       <c r="H224">
-        <v>-1633644.380000025</v>
+        <v>290700.000000001</v>
       </c>
       <c r="I224">
         <v>0</v>
       </c>
       <c r="J224">
-        <v>-1633644.380000025</v>
+        <v>290700.000000001</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -7584,31 +7584,31 @@
         <v>44169</v>
       </c>
       <c r="B225">
-        <v>97478420.76682818</v>
+        <v>1799720</v>
       </c>
       <c r="C225">
         <v>1000000</v>
       </c>
       <c r="D225">
-        <v>96478420.76682818</v>
+        <v>799720.0000000014</v>
       </c>
       <c r="E225">
-        <v>-6845861.660000024</v>
+        <v>169500.0000000012</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225">
-        <v>-6845861.660000024</v>
+        <v>169500.0000000012</v>
       </c>
       <c r="H225">
-        <v>-1470435.440000018</v>
+        <v>305300.0000000014</v>
       </c>
       <c r="I225">
         <v>0</v>
       </c>
       <c r="J225">
-        <v>-1470435.440000018</v>
+        <v>305300.0000000014</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -7616,31 +7616,31 @@
         <v>44172</v>
       </c>
       <c r="B226">
-        <v>104895927.056988</v>
+        <v>2311700.000000001</v>
       </c>
       <c r="C226">
         <v>1000000</v>
       </c>
       <c r="D226">
-        <v>103895927.056988</v>
+        <v>1311700.000000002</v>
       </c>
       <c r="E226">
-        <v>-5636635.740000022</v>
+        <v>311700.0000000014</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226">
-        <v>-5636635.740000022</v>
+        <v>311700.0000000014</v>
       </c>
       <c r="H226">
-        <v>-1454135.940000021</v>
+        <v>311700.0000000013</v>
       </c>
       <c r="I226">
         <v>0</v>
       </c>
       <c r="J226">
-        <v>-1454135.940000021</v>
+        <v>311700.0000000013</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -7648,31 +7648,31 @@
         <v>44173</v>
       </c>
       <c r="B227">
-        <v>95918966.12098804</v>
+        <v>1929480.000000001</v>
       </c>
       <c r="C227">
         <v>1000000</v>
       </c>
       <c r="D227">
-        <v>94918966.12098804</v>
+        <v>929480.0000000016</v>
       </c>
       <c r="E227">
-        <v>-5636635.740000022</v>
+        <v>311700.0000000014</v>
       </c>
       <c r="F227">
         <v>0</v>
       </c>
       <c r="G227">
-        <v>-5636635.740000022</v>
+        <v>311700.0000000014</v>
       </c>
       <c r="H227">
-        <v>-327832.1200000195</v>
+        <v>361100.0000000012</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227">
-        <v>-327832.1200000195</v>
+        <v>361100.0000000012</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -7680,31 +7680,31 @@
         <v>44174</v>
       </c>
       <c r="B228">
-        <v>95918966.12098804</v>
+        <v>1929480.000000001</v>
       </c>
       <c r="C228">
         <v>1000000</v>
       </c>
       <c r="D228">
-        <v>94918966.12098804</v>
+        <v>929480.0000000016</v>
       </c>
       <c r="E228">
-        <v>-5636635.740000022</v>
+        <v>311700.0000000014</v>
       </c>
       <c r="F228">
         <v>0</v>
       </c>
       <c r="G228">
-        <v>-5636635.740000022</v>
+        <v>311700.0000000014</v>
       </c>
       <c r="H228">
-        <v>573898.7199999793</v>
+        <v>376900.0000000011</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228">
-        <v>573898.7199999793</v>
+        <v>376900.0000000011</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -7712,31 +7712,31 @@
         <v>44175</v>
       </c>
       <c r="B229">
-        <v>95918966.12098804</v>
+        <v>1929480.000000001</v>
       </c>
       <c r="C229">
         <v>1000000</v>
       </c>
       <c r="D229">
-        <v>94918966.12098804</v>
+        <v>929480.0000000016</v>
       </c>
       <c r="E229">
-        <v>-5636635.740000022</v>
+        <v>311700.0000000014</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
       <c r="G229">
-        <v>-5636635.740000022</v>
+        <v>311700.0000000014</v>
       </c>
       <c r="H229">
-        <v>-190022.780000027</v>
+        <v>337900.0000000008</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229">
-        <v>-190022.780000027</v>
+        <v>337900.0000000008</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -7744,31 +7744,31 @@
         <v>44176</v>
       </c>
       <c r="B230">
-        <v>95918966.12098804</v>
+        <v>1929480.000000001</v>
       </c>
       <c r="C230">
         <v>1000000</v>
       </c>
       <c r="D230">
-        <v>94918966.12098804</v>
+        <v>929480.0000000016</v>
       </c>
       <c r="E230">
-        <v>-5636635.740000022</v>
+        <v>311700.0000000014</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>-5636635.740000022</v>
+        <v>311700.0000000014</v>
       </c>
       <c r="H230">
-        <v>-1002440.180000028</v>
+        <v>330900.0000000009</v>
       </c>
       <c r="I230">
         <v>0</v>
       </c>
       <c r="J230">
-        <v>-1002440.180000028</v>
+        <v>330900.0000000009</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -7776,31 +7776,31 @@
         <v>44179</v>
       </c>
       <c r="B231">
-        <v>101543609.6890217</v>
+        <v>2322100</v>
       </c>
       <c r="C231">
         <v>1000000</v>
       </c>
       <c r="D231">
-        <v>100543609.6890217</v>
+        <v>1322100.000000001</v>
       </c>
       <c r="E231">
-        <v>-5381083.560000025</v>
+        <v>322100.000000001</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231">
-        <v>-5381083.560000025</v>
+        <v>322100.000000001</v>
       </c>
       <c r="H231">
-        <v>-900512.2800000247</v>
+        <v>322100.0000000009</v>
       </c>
       <c r="I231">
         <v>0</v>
       </c>
       <c r="J231">
-        <v>-900512.2800000247</v>
+        <v>322100.0000000009</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -7808,31 +7808,31 @@
         <v>44180</v>
       </c>
       <c r="B232">
-        <v>96474451.30902173</v>
+        <v>1941100</v>
       </c>
       <c r="C232">
         <v>1000000</v>
       </c>
       <c r="D232">
-        <v>95474451.30902173</v>
+        <v>941100.0000000014</v>
       </c>
       <c r="E232">
-        <v>-5381083.560000025</v>
+        <v>322100.000000001</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
       <c r="G232">
-        <v>-5381083.560000025</v>
+        <v>322100.000000001</v>
       </c>
       <c r="H232">
-        <v>-215348.0000000274</v>
+        <v>340900.0000000009</v>
       </c>
       <c r="I232">
         <v>0</v>
       </c>
       <c r="J232">
-        <v>-215348.0000000274</v>
+        <v>340900.0000000009</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -7840,31 +7840,31 @@
         <v>44181</v>
       </c>
       <c r="B233">
-        <v>96474451.30902173</v>
+        <v>1941100</v>
       </c>
       <c r="C233">
         <v>1000000</v>
       </c>
       <c r="D233">
-        <v>95474451.30902173</v>
+        <v>941100.0000000014</v>
       </c>
       <c r="E233">
-        <v>-5381083.560000025</v>
+        <v>322100.000000001</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233">
-        <v>-5381083.560000025</v>
+        <v>322100.000000001</v>
       </c>
       <c r="H233">
-        <v>-199361.5800000288</v>
+        <v>386100.0000000007</v>
       </c>
       <c r="I233">
         <v>0</v>
       </c>
       <c r="J233">
-        <v>-199361.5800000288</v>
+        <v>386100.0000000007</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -7872,31 +7872,31 @@
         <v>44182</v>
       </c>
       <c r="B234">
-        <v>96474451.30902173</v>
+        <v>1941100</v>
       </c>
       <c r="C234">
         <v>1000000</v>
       </c>
       <c r="D234">
-        <v>95474451.30902173</v>
+        <v>941100.0000000014</v>
       </c>
       <c r="E234">
-        <v>-5381083.560000025</v>
+        <v>322100.000000001</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234">
-        <v>-5381083.560000025</v>
+        <v>322100.000000001</v>
       </c>
       <c r="H234">
-        <v>-1988251.900000028</v>
+        <v>395900.0000000009</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="J234">
-        <v>-1988251.900000028</v>
+        <v>395900.0000000009</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -7904,31 +7904,31 @@
         <v>44183</v>
       </c>
       <c r="B235">
-        <v>96474451.30902173</v>
+        <v>1941100</v>
       </c>
       <c r="C235">
         <v>1000000</v>
       </c>
       <c r="D235">
-        <v>95474451.30902173</v>
+        <v>941100.0000000014</v>
       </c>
       <c r="E235">
-        <v>-5381083.560000025</v>
+        <v>322100.000000001</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235">
-        <v>-5381083.560000025</v>
+        <v>322100.000000001</v>
       </c>
       <c r="H235">
-        <v>-3455075.740000027</v>
+        <v>448500.0000000008</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235">
-        <v>-3455075.740000027</v>
+        <v>448500.0000000008</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -7936,31 +7936,31 @@
         <v>44186</v>
       </c>
       <c r="B236">
-        <v>105738350.4660329</v>
+        <v>2451700</v>
       </c>
       <c r="C236">
         <v>1000000</v>
       </c>
       <c r="D236">
-        <v>104738350.4660329</v>
+        <v>1451700.000000001</v>
       </c>
       <c r="E236">
-        <v>-7016781.820000028</v>
+        <v>451700.0000000008</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
       <c r="G236">
-        <v>-7016781.820000028</v>
+        <v>451700.0000000008</v>
       </c>
       <c r="H236">
-        <v>-3058971.520000027</v>
+        <v>451700.0000000007</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236">
-        <v>-3058971.520000027</v>
+        <v>451700.0000000007</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -7968,31 +7968,31 @@
         <v>44187</v>
       </c>
       <c r="B237">
-        <v>94439550.10603289</v>
+        <v>2056740</v>
       </c>
       <c r="C237">
         <v>1000000</v>
       </c>
       <c r="D237">
-        <v>93439550.10603289</v>
+        <v>1056740.000000001</v>
       </c>
       <c r="E237">
-        <v>-7016781.820000028</v>
+        <v>451700.0000000008</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237">
-        <v>-7016781.820000028</v>
+        <v>451700.0000000008</v>
       </c>
       <c r="H237">
-        <v>-1869011.120000024</v>
+        <v>445100.000000001</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237">
-        <v>-1869011.120000024</v>
+        <v>445100.000000001</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8000,31 +8000,31 @@
         <v>44188</v>
       </c>
       <c r="B238">
-        <v>94439550.10603289</v>
+        <v>2056740</v>
       </c>
       <c r="C238">
         <v>1000000</v>
       </c>
       <c r="D238">
-        <v>93439550.10603289</v>
+        <v>1056740.000000001</v>
       </c>
       <c r="E238">
-        <v>-7016781.820000028</v>
+        <v>451700.0000000008</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>-7016781.820000028</v>
+        <v>451700.0000000008</v>
       </c>
       <c r="H238">
-        <v>945859.4799999763</v>
+        <v>428500.0000000008</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238">
-        <v>945859.4799999763</v>
+        <v>428500.0000000008</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -8032,31 +8032,31 @@
         <v>44189</v>
       </c>
       <c r="B239">
-        <v>94439550.10603289</v>
+        <v>2056740</v>
       </c>
       <c r="C239">
         <v>1000000</v>
       </c>
       <c r="D239">
-        <v>93439550.10603289</v>
+        <v>1056740.000000001</v>
       </c>
       <c r="E239">
-        <v>-7016781.820000028</v>
+        <v>451700.0000000008</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239">
-        <v>-7016781.820000028</v>
+        <v>451700.0000000008</v>
       </c>
       <c r="H239">
-        <v>-398758.020000027</v>
+        <v>430100.000000001</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239">
-        <v>-398758.020000027</v>
+        <v>430100.000000001</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8064,31 +8064,31 @@
         <v>44190</v>
       </c>
       <c r="B240">
-        <v>94439550.10603289</v>
+        <v>2056740</v>
       </c>
       <c r="C240">
         <v>1000000</v>
       </c>
       <c r="D240">
-        <v>93439550.10603289</v>
+        <v>1056740.000000001</v>
       </c>
       <c r="E240">
-        <v>-7016781.820000028</v>
+        <v>451700.0000000008</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>-7016781.820000028</v>
+        <v>451700.0000000008</v>
       </c>
       <c r="H240">
-        <v>-1463051.520000016</v>
+        <v>434300.0000000012</v>
       </c>
       <c r="I240">
         <v>0</v>
       </c>
       <c r="J240">
-        <v>-1463051.520000016</v>
+        <v>434300.0000000012</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -8096,31 +8096,31 @@
         <v>44193</v>
       </c>
       <c r="B241">
-        <v>101439824.9340329</v>
+        <v>2452100</v>
       </c>
       <c r="C241">
         <v>1000000</v>
       </c>
       <c r="D241">
-        <v>100439824.9340329</v>
+        <v>1452100.000000001</v>
       </c>
       <c r="E241">
-        <v>-7181747.300000029</v>
+        <v>452100.000000001</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241">
-        <v>-7181747.300000029</v>
+        <v>452100.000000001</v>
       </c>
       <c r="H241">
-        <v>-1576798.900000026</v>
+        <v>452100.0000000009</v>
       </c>
       <c r="I241">
         <v>0</v>
       </c>
       <c r="J241">
-        <v>-1576798.900000026</v>
+        <v>452100.0000000009</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -8128,31 +8128,31 @@
         <v>44194</v>
       </c>
       <c r="B242">
-        <v>101439824.9340329</v>
+        <v>2057700</v>
       </c>
       <c r="C242">
         <v>1000000</v>
       </c>
       <c r="D242">
-        <v>100439824.9340329</v>
+        <v>1057700.000000001</v>
       </c>
       <c r="E242">
-        <v>-7181747.300000029</v>
+        <v>452100.000000001</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>-7181747.300000029</v>
+        <v>452100.000000001</v>
       </c>
       <c r="H242">
-        <v>-1509144.280000024</v>
+        <v>464300.0000000012</v>
       </c>
       <c r="I242">
         <v>0</v>
       </c>
       <c r="J242">
-        <v>-1509144.280000024</v>
+        <v>464300.0000000012</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -8160,31 +8160,31 @@
         <v>44195</v>
       </c>
       <c r="B243">
-        <v>101439824.9340329</v>
+        <v>2057700</v>
       </c>
       <c r="C243">
         <v>1000000</v>
       </c>
       <c r="D243">
-        <v>100439824.9340329</v>
+        <v>1057700.000000001</v>
       </c>
       <c r="E243">
-        <v>-7181747.300000029</v>
+        <v>452100.000000001</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243">
-        <v>-7181747.300000029</v>
+        <v>452100.000000001</v>
       </c>
       <c r="H243">
-        <v>-1355312.740000025</v>
+        <v>447500.0000000011</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
       <c r="J243">
-        <v>-1355312.740000025</v>
+        <v>447500.0000000011</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -8192,31 +8192,31 @@
         <v>44196</v>
       </c>
       <c r="B244">
-        <v>101439824.9340329</v>
+        <v>2057700</v>
       </c>
       <c r="C244">
         <v>1000000</v>
       </c>
       <c r="D244">
-        <v>100439824.9340329</v>
+        <v>1057700.000000001</v>
       </c>
       <c r="E244">
-        <v>-7181747.300000029</v>
+        <v>452100.000000001</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
       <c r="G244">
-        <v>-7181747.300000029</v>
+        <v>452100.000000001</v>
       </c>
       <c r="H244">
-        <v>-1187084.620000026</v>
+        <v>459100.0000000013</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244">
-        <v>-1187084.620000026</v>
+        <v>459100.0000000013</v>
       </c>
     </row>
   </sheetData>
